--- a/EO-EC-TA-full/Fp2-full.xlsx
+++ b/EO-EC-TA-full/Fp2-full.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\IIT\Year 2 Sem 2\SDGP\ML-github-component\Intellignosis\EO-EC-TA-full\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{529478E8-DAAB-4966-907B-817A224506AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91C24DAA-E616-4315-8BE2-AB3696AE0DD5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{51370822-D40A-4D4A-B4F0-1486E8396425}"/>
   </bookViews>
@@ -484,8 +484,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{61B1AC78-D581-4C79-9069-BCB645E5B441}">
   <dimension ref="A1:L145"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A124" workbookViewId="0">
-      <selection activeCell="P132" sqref="P132"/>
+    <sheetView tabSelected="1" topLeftCell="A27" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="G1" sqref="G1:G1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -529,23 +529,23 @@
       <c r="A2" t="s">
         <v>11</v>
       </c>
-      <c r="B2" s="3">
-        <v>21.02303056732416</v>
-      </c>
-      <c r="C2" s="3">
-        <v>4.2837569614106172</v>
-      </c>
-      <c r="D2" s="3">
-        <v>3.313756774137139</v>
-      </c>
-      <c r="E2" s="3">
-        <v>2.929484636118632</v>
-      </c>
-      <c r="F2" s="3">
-        <v>2.5518929597318269</v>
+      <c r="B2" s="4">
+        <v>17.606689762272168</v>
+      </c>
+      <c r="C2" s="4">
+        <v>4.2579501840670062</v>
+      </c>
+      <c r="D2" s="4">
+        <v>9.4851571208813059</v>
+      </c>
+      <c r="E2" s="4">
+        <v>3.4380005502492978</v>
+      </c>
+      <c r="F2" s="4">
+        <v>1.829534190037561</v>
       </c>
       <c r="G2">
-        <v>34.101921898722367</v>
+        <v>36.617331807507341</v>
       </c>
       <c r="H2">
         <v>0.25</v>
@@ -554,10 +554,10 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>3</v>
-      </c>
-      <c r="K2" s="3">
-        <v>0</v>
+        <v>11</v>
+      </c>
+      <c r="K2" s="4">
+        <v>1</v>
       </c>
       <c r="L2" t="s">
         <v>12</v>
@@ -567,23 +567,23 @@
       <c r="A3" t="s">
         <v>11</v>
       </c>
-      <c r="B3" s="3">
-        <v>29.442891182723461</v>
-      </c>
-      <c r="C3" s="3">
-        <v>7.0288659616282434</v>
-      </c>
-      <c r="D3" s="3">
-        <v>7.2691915450808908</v>
-      </c>
-      <c r="E3" s="3">
-        <v>2.88245292318308</v>
-      </c>
-      <c r="F3" s="3">
-        <v>2.7572352844871602</v>
+      <c r="B3" s="4">
+        <v>8.8329868238128331</v>
+      </c>
+      <c r="C3" s="4">
+        <v>6.5122076353828042</v>
+      </c>
+      <c r="D3" s="4">
+        <v>5.7003442584320334</v>
+      </c>
+      <c r="E3" s="4">
+        <v>2.912298484642414</v>
+      </c>
+      <c r="F3" s="4">
+        <v>1.9020653358209241</v>
       </c>
       <c r="G3">
-        <v>49.380636897102832</v>
+        <v>25.859902538090999</v>
       </c>
       <c r="H3">
         <v>0.25</v>
@@ -592,10 +592,10 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>8</v>
-      </c>
-      <c r="K3" s="3">
-        <v>0</v>
+        <v>9</v>
+      </c>
+      <c r="K3" s="4">
+        <v>1</v>
       </c>
       <c r="L3" t="s">
         <v>12</v>
@@ -606,22 +606,22 @@
         <v>11</v>
       </c>
       <c r="B4" s="3">
-        <v>13.975429707910219</v>
+        <v>509.67805169874669</v>
       </c>
       <c r="C4" s="3">
-        <v>14.711864501636329</v>
+        <v>57.855332830996169</v>
       </c>
       <c r="D4" s="3">
-        <v>3.6678847368746328</v>
+        <v>5.1405345871796797</v>
       </c>
       <c r="E4" s="3">
-        <v>2.62389092852179</v>
+        <v>2.289060706170793</v>
       </c>
       <c r="F4" s="3">
-        <v>2.8081580760990978</v>
+        <v>1.955540057545434</v>
       </c>
       <c r="G4">
-        <v>37.78722795104207</v>
+        <v>576.91851988063877</v>
       </c>
       <c r="H4">
         <v>0.25</v>
@@ -630,36 +630,36 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="K4" s="3">
         <v>0</v>
       </c>
       <c r="L4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>11</v>
       </c>
-      <c r="B5" s="3">
-        <v>152.7899273863496</v>
-      </c>
-      <c r="C5" s="3">
-        <v>25.06744178172691</v>
-      </c>
-      <c r="D5" s="3">
-        <v>13.55811056312641</v>
-      </c>
-      <c r="E5" s="3">
-        <v>4.5456378037384484</v>
-      </c>
-      <c r="F5" s="3">
-        <v>2.9727616575298108</v>
+      <c r="B5" s="4">
+        <v>16.758807962675</v>
+      </c>
+      <c r="C5" s="4">
+        <v>11.14700057531293</v>
+      </c>
+      <c r="D5" s="4">
+        <v>9.6208501482074116</v>
+      </c>
+      <c r="E5" s="4">
+        <v>2.7789826661302008</v>
+      </c>
+      <c r="F5" s="4">
+        <v>1.9890552852700141</v>
       </c>
       <c r="G5">
-        <v>198.93387919247121</v>
+        <v>42.29469663759555</v>
       </c>
       <c r="H5">
         <v>0.25</v>
@@ -670,8 +670,8 @@
       <c r="J5">
         <v>14</v>
       </c>
-      <c r="K5" s="3">
-        <v>0</v>
+      <c r="K5" s="4">
+        <v>1</v>
       </c>
       <c r="L5" t="s">
         <v>12</v>
@@ -681,23 +681,23 @@
       <c r="A6" t="s">
         <v>11</v>
       </c>
-      <c r="B6" s="3">
-        <v>67.80613173120544</v>
-      </c>
-      <c r="C6" s="3">
-        <v>16.79524660106183</v>
-      </c>
-      <c r="D6" s="3">
-        <v>40.420467945742487</v>
-      </c>
-      <c r="E6" s="3">
-        <v>4.2046161716202084</v>
-      </c>
-      <c r="F6" s="3">
-        <v>3.0139344190735389</v>
+      <c r="B6" s="4">
+        <v>10.39666557926698</v>
+      </c>
+      <c r="C6" s="4">
+        <v>6.7017996661046224</v>
+      </c>
+      <c r="D6" s="4">
+        <v>4.0127140697908779</v>
+      </c>
+      <c r="E6" s="4">
+        <v>2.4907327395518339</v>
+      </c>
+      <c r="F6" s="4">
+        <v>2.0445248545257271</v>
       </c>
       <c r="G6">
-        <v>132.2403968687035</v>
+        <v>25.646436909240041</v>
       </c>
       <c r="H6">
         <v>0.25</v>
@@ -706,36 +706,36 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>2</v>
-      </c>
-      <c r="K6" s="3">
-        <v>0</v>
+        <v>11</v>
+      </c>
+      <c r="K6" s="4">
+        <v>1</v>
       </c>
       <c r="L6" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>11</v>
       </c>
-      <c r="B7" s="3">
-        <v>22.30427000933074</v>
-      </c>
-      <c r="C7" s="3">
-        <v>12.29713870608461</v>
-      </c>
-      <c r="D7" s="3">
-        <v>50.256101911389578</v>
-      </c>
-      <c r="E7" s="3">
-        <v>5.714799351398999</v>
-      </c>
-      <c r="F7" s="3">
-        <v>3.0979186296957768</v>
+      <c r="B7" s="4">
+        <v>416.10960927298441</v>
+      </c>
+      <c r="C7" s="4">
+        <v>66.423316112111777</v>
+      </c>
+      <c r="D7" s="4">
+        <v>4.6931837765146396</v>
+      </c>
+      <c r="E7" s="4">
+        <v>2.255729169055821</v>
+      </c>
+      <c r="F7" s="4">
+        <v>2.1687998120334102</v>
       </c>
       <c r="G7">
-        <v>93.670228607899688</v>
+        <v>491.65063814270002</v>
       </c>
       <c r="H7">
         <v>0.25</v>
@@ -744,36 +744,36 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>17</v>
-      </c>
-      <c r="K7" s="3">
-        <v>0</v>
+        <v>28</v>
+      </c>
+      <c r="K7" s="4">
+        <v>1</v>
       </c>
       <c r="L7" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>11</v>
       </c>
-      <c r="B8" s="3">
-        <v>24.41882702885913</v>
-      </c>
-      <c r="C8" s="3">
-        <v>6.0664152751749336</v>
-      </c>
-      <c r="D8" s="3">
-        <v>4.666422108012906</v>
-      </c>
-      <c r="E8" s="3">
-        <v>2.5467785546250101</v>
-      </c>
-      <c r="F8" s="3">
-        <v>3.1303492769461712</v>
+      <c r="B8" s="4">
+        <v>21.766712427253491</v>
+      </c>
+      <c r="C8" s="4">
+        <v>15.51321796605084</v>
+      </c>
+      <c r="D8" s="4">
+        <v>17.390447187576999</v>
+      </c>
+      <c r="E8" s="4">
+        <v>3.1711411261754479</v>
+      </c>
+      <c r="F8" s="4">
+        <v>2.2550466214231788</v>
       </c>
       <c r="G8">
-        <v>40.828792243618153</v>
+        <v>60.096565328479947</v>
       </c>
       <c r="H8">
         <v>0.25</v>
@@ -782,10 +782,10 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>16</v>
-      </c>
-      <c r="K8" s="3">
-        <v>0</v>
+        <v>22</v>
+      </c>
+      <c r="K8" s="4">
+        <v>1</v>
       </c>
       <c r="L8" t="s">
         <v>12</v>
@@ -795,23 +795,23 @@
       <c r="A9" t="s">
         <v>11</v>
       </c>
-      <c r="B9" s="3">
-        <v>10.306711086579559</v>
-      </c>
-      <c r="C9" s="3">
-        <v>6.671501035990234</v>
-      </c>
-      <c r="D9" s="3">
-        <v>6.0172686301578624</v>
-      </c>
-      <c r="E9" s="3">
-        <v>3.0778830977435918</v>
-      </c>
-      <c r="F9" s="3">
-        <v>3.4997623185160651</v>
+      <c r="B9" s="4">
+        <v>32.346328880581737</v>
+      </c>
+      <c r="C9" s="4">
+        <v>10.390728956484541</v>
+      </c>
+      <c r="D9" s="4">
+        <v>6.411507745651293</v>
+      </c>
+      <c r="E9" s="4">
+        <v>3.6765653536119691</v>
+      </c>
+      <c r="F9" s="4">
+        <v>2.4967556655091672</v>
       </c>
       <c r="G9">
-        <v>29.573126168987312</v>
+        <v>55.321886601838713</v>
       </c>
       <c r="H9">
         <v>0.25</v>
@@ -820,10 +820,10 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>7</v>
-      </c>
-      <c r="K9" s="3">
-        <v>0</v>
+        <v>5</v>
+      </c>
+      <c r="K9" s="4">
+        <v>1</v>
       </c>
       <c r="L9" t="s">
         <v>12</v>
@@ -834,22 +834,22 @@
         <v>11</v>
       </c>
       <c r="B10" s="3">
-        <v>190.87900201766931</v>
+        <v>21.02303056732416</v>
       </c>
       <c r="C10" s="3">
-        <v>11.799465402409609</v>
+        <v>4.2837569614106172</v>
       </c>
       <c r="D10" s="3">
-        <v>10.36268598812943</v>
+        <v>3.313756774137139</v>
       </c>
       <c r="E10" s="3">
-        <v>3.5026512284913021</v>
+        <v>2.929484636118632</v>
       </c>
       <c r="F10" s="3">
-        <v>4.0903516730178344</v>
+        <v>2.5518929597318269</v>
       </c>
       <c r="G10">
-        <v>220.63415630971741</v>
+        <v>34.101921898722367</v>
       </c>
       <c r="H10">
         <v>0.25</v>
@@ -858,7 +858,7 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>22</v>
+        <v>3</v>
       </c>
       <c r="K10" s="3">
         <v>0</v>
@@ -871,23 +871,23 @@
       <c r="A11" t="s">
         <v>11</v>
       </c>
-      <c r="B11" s="3">
-        <v>13.41803273474776</v>
-      </c>
-      <c r="C11" s="3">
-        <v>25.52474355031929</v>
-      </c>
-      <c r="D11" s="3">
-        <v>23.76937655371567</v>
-      </c>
-      <c r="E11" s="3">
-        <v>4.8845474709753196</v>
-      </c>
-      <c r="F11" s="3">
-        <v>4.1126546338644374</v>
+      <c r="B11" s="4">
+        <v>85.158604490631063</v>
+      </c>
+      <c r="C11" s="4">
+        <v>17.65153890107695</v>
+      </c>
+      <c r="D11" s="4">
+        <v>3.0639940003448629</v>
+      </c>
+      <c r="E11" s="4">
+        <v>5.3745349397215367</v>
+      </c>
+      <c r="F11" s="4">
+        <v>2.5849556550062109</v>
       </c>
       <c r="G11">
-        <v>71.709354943622486</v>
+        <v>113.8336279867806</v>
       </c>
       <c r="H11">
         <v>0.25</v>
@@ -896,10 +896,10 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>5</v>
-      </c>
-      <c r="K11" s="3">
-        <v>0</v>
+        <v>17</v>
+      </c>
+      <c r="K11" s="4">
+        <v>1</v>
       </c>
       <c r="L11" t="s">
         <v>12</v>
@@ -910,22 +910,22 @@
         <v>11</v>
       </c>
       <c r="B12" s="3">
-        <v>517.88638661510618</v>
+        <v>985.54591185643699</v>
       </c>
       <c r="C12" s="3">
-        <v>37.811215398327263</v>
+        <v>124.72507875094119</v>
       </c>
       <c r="D12" s="3">
-        <v>11.63586428705926</v>
+        <v>11.09205476753367</v>
       </c>
       <c r="E12" s="3">
-        <v>5.2388040414136769</v>
+        <v>3.6191970186581028</v>
       </c>
       <c r="F12" s="3">
-        <v>4.1854174743416266</v>
+        <v>2.7156449479888041</v>
       </c>
       <c r="G12">
-        <v>576.75768781624799</v>
+        <v>1127.697887341559</v>
       </c>
       <c r="H12">
         <v>0.25</v>
@@ -934,13 +934,13 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="K12" s="3">
         <v>0</v>
       </c>
       <c r="L12" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.3">
@@ -948,22 +948,22 @@
         <v>11</v>
       </c>
       <c r="B13" s="3">
-        <v>98.394014425923842</v>
+        <v>93.063495560264215</v>
       </c>
       <c r="C13" s="3">
-        <v>10.269826273971191</v>
+        <v>27.63449944451332</v>
       </c>
       <c r="D13" s="3">
-        <v>23.994811741258541</v>
+        <v>5.0360611667965518</v>
       </c>
       <c r="E13" s="3">
-        <v>5.0633091027343573</v>
+        <v>2.71761271287094</v>
       </c>
       <c r="F13" s="3">
-        <v>4.2538337115409304</v>
+        <v>2.7394446403130122</v>
       </c>
       <c r="G13">
-        <v>141.97579525542889</v>
+        <v>131.19111352475801</v>
       </c>
       <c r="H13">
         <v>0.25</v>
@@ -972,13 +972,13 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="K13" s="3">
         <v>0</v>
       </c>
       <c r="L13" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.3">
@@ -986,22 +986,22 @@
         <v>11</v>
       </c>
       <c r="B14" s="3">
-        <v>36.949787936586247</v>
+        <v>29.442891182723461</v>
       </c>
       <c r="C14" s="3">
-        <v>34.393598104993231</v>
+        <v>7.0288659616282434</v>
       </c>
       <c r="D14" s="3">
-        <v>9.446143617977059</v>
+        <v>7.2691915450808908</v>
       </c>
       <c r="E14" s="3">
-        <v>4.1955824782794764</v>
+        <v>2.88245292318308</v>
       </c>
       <c r="F14" s="3">
-        <v>4.7368143152980426</v>
+        <v>2.7572352844871602</v>
       </c>
       <c r="G14">
-        <v>89.721926453134046</v>
+        <v>49.380636897102832</v>
       </c>
       <c r="H14">
         <v>0.25</v>
@@ -1010,7 +1010,7 @@
         <v>0</v>
       </c>
       <c r="J14">
-        <v>23</v>
+        <v>8</v>
       </c>
       <c r="K14" s="3">
         <v>0</v>
@@ -1024,22 +1024,22 @@
         <v>11</v>
       </c>
       <c r="B15" s="3">
-        <v>83.04189990419215</v>
+        <v>13.975429707910219</v>
       </c>
       <c r="C15" s="3">
-        <v>17.39229385258869</v>
+        <v>14.711864501636329</v>
       </c>
       <c r="D15" s="3">
-        <v>50.167576773811021</v>
+        <v>3.6678847368746328</v>
       </c>
       <c r="E15" s="3">
-        <v>7.9364112621967564</v>
+        <v>2.62389092852179</v>
       </c>
       <c r="F15" s="3">
-        <v>4.8418354166783093</v>
+        <v>2.8081580760990978</v>
       </c>
       <c r="G15">
-        <v>163.3800172094669</v>
+        <v>37.78722795104207</v>
       </c>
       <c r="H15">
         <v>0.25</v>
@@ -1048,7 +1048,7 @@
         <v>0</v>
       </c>
       <c r="J15">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="K15" s="3">
         <v>0</v>
@@ -1062,22 +1062,22 @@
         <v>11</v>
       </c>
       <c r="B16" s="3">
-        <v>47.652399064768893</v>
+        <v>152.7899273863496</v>
       </c>
       <c r="C16" s="3">
-        <v>23.675378400347089</v>
+        <v>25.06744178172691</v>
       </c>
       <c r="D16" s="3">
-        <v>31.030182383064862</v>
+        <v>13.55811056312641</v>
       </c>
       <c r="E16" s="3">
-        <v>4.8184601383725694</v>
+        <v>4.5456378037384484</v>
       </c>
       <c r="F16" s="3">
-        <v>5.5038503214022656</v>
+        <v>2.9727616575298108</v>
       </c>
       <c r="G16">
-        <v>112.68027030795569</v>
+        <v>198.93387919247121</v>
       </c>
       <c r="H16">
         <v>0.25</v>
@@ -1086,7 +1086,7 @@
         <v>0</v>
       </c>
       <c r="J16">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="K16" s="3">
         <v>0</v>
@@ -1100,22 +1100,22 @@
         <v>11</v>
       </c>
       <c r="B17" s="3">
-        <v>18.040036227670001</v>
+        <v>707.53058105929733</v>
       </c>
       <c r="C17" s="3">
-        <v>46.406052018667012</v>
+        <v>51.19197473068273</v>
       </c>
       <c r="D17" s="3">
-        <v>18.678188724228949</v>
+        <v>8.9192825676029699</v>
       </c>
       <c r="E17" s="3">
-        <v>4.1654475453916042</v>
+        <v>3.8565539526465411</v>
       </c>
       <c r="F17" s="3">
-        <v>5.5767867500979289</v>
+        <v>2.9840494598915068</v>
       </c>
       <c r="G17">
-        <v>92.866511266055511</v>
+        <v>774.48244177012089</v>
       </c>
       <c r="H17">
         <v>0.25</v>
@@ -1124,13 +1124,13 @@
         <v>0</v>
       </c>
       <c r="J17">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="K17" s="3">
         <v>0</v>
       </c>
       <c r="L17" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.3">
@@ -1138,22 +1138,22 @@
         <v>11</v>
       </c>
       <c r="B18" s="3">
-        <v>16.761593838906261</v>
+        <v>67.80613173120544</v>
       </c>
       <c r="C18" s="3">
-        <v>36.934497920327892</v>
+        <v>16.79524660106183</v>
       </c>
       <c r="D18" s="3">
-        <v>29.253545568080259</v>
+        <v>40.420467945742487</v>
       </c>
       <c r="E18" s="3">
-        <v>7.4497862898445426</v>
+        <v>4.2046161716202084</v>
       </c>
       <c r="F18" s="3">
-        <v>6.2491550074361459</v>
+        <v>3.0139344190735389</v>
       </c>
       <c r="G18">
-        <v>96.648578624595075</v>
+        <v>132.2403968687035</v>
       </c>
       <c r="H18">
         <v>0.25</v>
@@ -1162,7 +1162,7 @@
         <v>0</v>
       </c>
       <c r="J18">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="K18" s="3">
         <v>0</v>
@@ -1175,23 +1175,23 @@
       <c r="A19" t="s">
         <v>11</v>
       </c>
-      <c r="B19" s="3">
-        <v>217.83327354159121</v>
-      </c>
-      <c r="C19" s="3">
-        <v>14.19289626770852</v>
-      </c>
-      <c r="D19" s="3">
-        <v>11.67421737145585</v>
-      </c>
-      <c r="E19" s="3">
-        <v>8.7664231802713886</v>
-      </c>
-      <c r="F19" s="3">
-        <v>8.062339008791982</v>
+      <c r="B19" s="4">
+        <v>22.742066915105688</v>
+      </c>
+      <c r="C19" s="4">
+        <v>12.347046364206561</v>
+      </c>
+      <c r="D19" s="4">
+        <v>36.263742991154707</v>
+      </c>
+      <c r="E19" s="4">
+        <v>9.5846228731881737</v>
+      </c>
+      <c r="F19" s="4">
+        <v>3.0449749695510659</v>
       </c>
       <c r="G19">
-        <v>260.52914936981892</v>
+        <v>83.982454113206202</v>
       </c>
       <c r="H19">
         <v>0.25</v>
@@ -1200,10 +1200,10 @@
         <v>0</v>
       </c>
       <c r="J19">
-        <v>1</v>
-      </c>
-      <c r="K19" s="3">
-        <v>0</v>
+        <v>15</v>
+      </c>
+      <c r="K19" s="4">
+        <v>1</v>
       </c>
       <c r="L19" t="s">
         <v>12</v>
@@ -1214,22 +1214,22 @@
         <v>11</v>
       </c>
       <c r="B20" s="3">
-        <v>213.3521899589015</v>
+        <v>22.30427000933074</v>
       </c>
       <c r="C20" s="3">
-        <v>104.4585355140411</v>
+        <v>12.29713870608461</v>
       </c>
       <c r="D20" s="3">
-        <v>11.11100221559164</v>
+        <v>50.256101911389578</v>
       </c>
       <c r="E20" s="3">
-        <v>6.4851855201035331</v>
+        <v>5.714799351398999</v>
       </c>
       <c r="F20" s="3">
-        <v>8.57784665118829</v>
+        <v>3.0979186296957768</v>
       </c>
       <c r="G20">
-        <v>343.984759859826</v>
+        <v>93.670228607899688</v>
       </c>
       <c r="H20">
         <v>0.25</v>
@@ -1238,7 +1238,7 @@
         <v>0</v>
       </c>
       <c r="J20">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="K20" s="3">
         <v>0</v>
@@ -1252,22 +1252,22 @@
         <v>11</v>
       </c>
       <c r="B21" s="3">
-        <v>17.53408841840232</v>
+        <v>24.41882702885913</v>
       </c>
       <c r="C21" s="3">
-        <v>40.611154434982041</v>
+        <v>6.0664152751749336</v>
       </c>
       <c r="D21" s="3">
-        <v>22.665615505520961</v>
+        <v>4.666422108012906</v>
       </c>
       <c r="E21" s="3">
-        <v>9.5496540522597773</v>
+        <v>2.5467785546250101</v>
       </c>
       <c r="F21" s="3">
-        <v>13.204969666219821</v>
+        <v>3.1303492769461712</v>
       </c>
       <c r="G21">
-        <v>103.5654820773849</v>
+        <v>40.828792243618153</v>
       </c>
       <c r="H21">
         <v>0.25</v>
@@ -1276,7 +1276,7 @@
         <v>0</v>
       </c>
       <c r="J21">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="K21" s="3">
         <v>0</v>
@@ -1289,23 +1289,23 @@
       <c r="A22" t="s">
         <v>11</v>
       </c>
-      <c r="B22" s="3">
-        <v>18.38945522608844</v>
-      </c>
-      <c r="C22" s="3">
-        <v>46.024821552352833</v>
-      </c>
-      <c r="D22" s="3">
-        <v>22.61379643229672</v>
-      </c>
-      <c r="E22" s="3">
-        <v>9.2596153075893675</v>
-      </c>
-      <c r="F22" s="3">
-        <v>14.105369130528571</v>
+      <c r="B22" s="4">
+        <v>45.635789749960743</v>
+      </c>
+      <c r="C22" s="4">
+        <v>14.172699043962259</v>
+      </c>
+      <c r="D22" s="4">
+        <v>4.7178925273411618</v>
+      </c>
+      <c r="E22" s="4">
+        <v>3.6905988380809638</v>
+      </c>
+      <c r="F22" s="4">
+        <v>3.1541023858898631</v>
       </c>
       <c r="G22">
-        <v>110.3930576488559</v>
+        <v>71.371082545234984</v>
       </c>
       <c r="H22">
         <v>0.25</v>
@@ -1314,13 +1314,13 @@
         <v>0</v>
       </c>
       <c r="J22">
-        <v>19</v>
-      </c>
-      <c r="K22" s="3">
-        <v>0</v>
+        <v>10</v>
+      </c>
+      <c r="K22" s="4">
+        <v>1</v>
       </c>
       <c r="L22" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.3">
@@ -1328,22 +1328,22 @@
         <v>11</v>
       </c>
       <c r="B23" s="3">
-        <v>6621.1684965510012</v>
+        <v>348.42144413101829</v>
       </c>
       <c r="C23" s="3">
-        <v>256.28628152110463</v>
+        <v>15.01306500709431</v>
       </c>
       <c r="D23" s="3">
-        <v>295.58096548823471</v>
+        <v>8.537086274697316</v>
       </c>
       <c r="E23" s="3">
-        <v>283.78510497621818</v>
+        <v>3.4733240663919429</v>
       </c>
       <c r="F23" s="3">
-        <v>138.90220440971899</v>
+        <v>3.1822356293430878</v>
       </c>
       <c r="G23">
-        <v>7595.7230529462804</v>
+        <v>378.62715510854491</v>
       </c>
       <c r="H23">
         <v>0.25</v>
@@ -1352,36 +1352,36 @@
         <v>0</v>
       </c>
       <c r="J23">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="K23" s="3">
         <v>0</v>
       </c>
       <c r="L23" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>11</v>
       </c>
-      <c r="B24" s="3">
-        <v>38.341130185927611</v>
-      </c>
-      <c r="C24" s="3">
-        <v>5.0322878575617773</v>
-      </c>
-      <c r="D24" s="3">
-        <v>3.3169345572737949</v>
-      </c>
-      <c r="E24" s="3">
-        <v>8.0043667425245282</v>
-      </c>
-      <c r="F24" s="3">
-        <v>19.327224413606832</v>
+      <c r="B24" s="4">
+        <v>21.515005251863489</v>
+      </c>
+      <c r="C24" s="4">
+        <v>7.255831550735242</v>
+      </c>
+      <c r="D24" s="4">
+        <v>13.09636680575912</v>
+      </c>
+      <c r="E24" s="4">
+        <v>5.4698429005733598</v>
+      </c>
+      <c r="F24" s="4">
+        <v>3.3145115030643781</v>
       </c>
       <c r="G24">
-        <v>74.021943756894544</v>
+        <v>50.651558011995597</v>
       </c>
       <c r="H24">
         <v>0.25</v>
@@ -1390,13 +1390,13 @@
         <v>0</v>
       </c>
       <c r="J24">
-        <v>3</v>
-      </c>
-      <c r="K24" s="3">
-        <v>0</v>
+        <v>7</v>
+      </c>
+      <c r="K24" s="4">
+        <v>1</v>
       </c>
       <c r="L24" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.3">
@@ -1404,22 +1404,22 @@
         <v>11</v>
       </c>
       <c r="B25" s="3">
-        <v>31.991883912291701</v>
+        <v>10.306711086579559</v>
       </c>
       <c r="C25" s="3">
-        <v>5.8346605956166506</v>
+        <v>6.671501035990234</v>
       </c>
       <c r="D25" s="3">
-        <v>3.114827513130165</v>
+        <v>6.0172686301578624</v>
       </c>
       <c r="E25" s="3">
-        <v>2.556030827668339</v>
+        <v>3.0778830977435918</v>
       </c>
       <c r="F25" s="3">
-        <v>4.2823571129516358</v>
+        <v>3.4997623185160651</v>
       </c>
       <c r="G25">
-        <v>47.779759961658499</v>
+        <v>29.573126168987312</v>
       </c>
       <c r="H25">
         <v>0.25</v>
@@ -1428,36 +1428,36 @@
         <v>0</v>
       </c>
       <c r="J25">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="K25" s="3">
         <v>0</v>
       </c>
       <c r="L25" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>11</v>
       </c>
-      <c r="B26" s="3">
-        <v>64.262786428457758</v>
-      </c>
-      <c r="C26" s="3">
-        <v>9.4053871778404101</v>
-      </c>
-      <c r="D26" s="3">
-        <v>5.8549179143616819</v>
-      </c>
-      <c r="E26" s="3">
-        <v>11.61505956189931</v>
-      </c>
-      <c r="F26" s="3">
-        <v>41.397726074692287</v>
+      <c r="B26" s="4">
+        <v>34.56137759320103</v>
+      </c>
+      <c r="C26" s="4">
+        <v>14.01878518859516</v>
+      </c>
+      <c r="D26" s="4">
+        <v>11.644639249305801</v>
+      </c>
+      <c r="E26" s="4">
+        <v>4.0798304903645999</v>
+      </c>
+      <c r="F26" s="4">
+        <v>3.5966438863464072</v>
       </c>
       <c r="G26">
-        <v>132.53587715725149</v>
+        <v>67.901276407812986</v>
       </c>
       <c r="H26">
         <v>0.25</v>
@@ -1466,13 +1466,13 @@
         <v>0</v>
       </c>
       <c r="J26">
-        <v>8</v>
-      </c>
-      <c r="K26" s="3">
-        <v>0</v>
+        <v>26</v>
+      </c>
+      <c r="K26" s="4">
+        <v>1</v>
       </c>
       <c r="L26" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.3">
@@ -1480,22 +1480,22 @@
         <v>11</v>
       </c>
       <c r="B27" s="3">
-        <v>143.70725534523081</v>
+        <v>90.603552387532901</v>
       </c>
       <c r="C27" s="3">
-        <v>11.974956098115641</v>
+        <v>36.61079584293109</v>
       </c>
       <c r="D27" s="3">
-        <v>12.527067660466971</v>
+        <v>7.0537543384577752</v>
       </c>
       <c r="E27" s="3">
-        <v>4.8010916678108426</v>
+        <v>3.363376908834173</v>
       </c>
       <c r="F27" s="3">
-        <v>4.1118567762584384</v>
+        <v>3.6133312572314789</v>
       </c>
       <c r="G27">
-        <v>177.12222754788269</v>
+        <v>141.2448107349874</v>
       </c>
       <c r="H27">
         <v>0.25</v>
@@ -1504,7 +1504,7 @@
         <v>0</v>
       </c>
       <c r="J27">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="K27" s="3">
         <v>0</v>
@@ -1517,23 +1517,23 @@
       <c r="A28" t="s">
         <v>11</v>
       </c>
-      <c r="B28" s="3">
-        <v>348.42144413101829</v>
-      </c>
-      <c r="C28" s="3">
-        <v>15.01306500709431</v>
-      </c>
-      <c r="D28" s="3">
-        <v>8.537086274697316</v>
-      </c>
-      <c r="E28" s="3">
-        <v>3.4733240663919429</v>
-      </c>
-      <c r="F28" s="3">
-        <v>3.1822356293430878</v>
+      <c r="B28" s="4">
+        <v>9.9165021593867522</v>
+      </c>
+      <c r="C28" s="4">
+        <v>4.6289087079053717</v>
+      </c>
+      <c r="D28" s="4">
+        <v>14.14269798180972</v>
+      </c>
+      <c r="E28" s="4">
+        <v>8.5012331309169191</v>
+      </c>
+      <c r="F28" s="4">
+        <v>3.6354393844863351</v>
       </c>
       <c r="G28">
-        <v>378.62715510854491</v>
+        <v>40.824781364505093</v>
       </c>
       <c r="H28">
         <v>0.25</v>
@@ -1542,13 +1542,13 @@
         <v>0</v>
       </c>
       <c r="J28">
-        <v>14</v>
-      </c>
-      <c r="K28" s="3">
-        <v>0</v>
+        <v>19</v>
+      </c>
+      <c r="K28" s="4">
+        <v>1</v>
       </c>
       <c r="L28" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.3">
@@ -1556,22 +1556,22 @@
         <v>11</v>
       </c>
       <c r="B29" s="3">
-        <v>292.86959949732761</v>
+        <v>281.07109522258048</v>
       </c>
       <c r="C29" s="3">
-        <v>16.665080907823711</v>
+        <v>75.225791332294264</v>
       </c>
       <c r="D29" s="3">
-        <v>7.9466489237644504</v>
+        <v>15.71128305114871</v>
       </c>
       <c r="E29" s="3">
-        <v>10.06563986348819</v>
+        <v>5.3545626906779349</v>
       </c>
       <c r="F29" s="3">
-        <v>16.12888585471088</v>
+        <v>3.670880149445034</v>
       </c>
       <c r="G29">
-        <v>343.67585504711479</v>
+        <v>381.03361244614649</v>
       </c>
       <c r="H29">
         <v>0.25</v>
@@ -1580,36 +1580,36 @@
         <v>0</v>
       </c>
       <c r="J29">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="K29" s="3">
         <v>0</v>
       </c>
       <c r="L29" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>11</v>
       </c>
-      <c r="B30" s="3">
-        <v>88.168146960282229</v>
-      </c>
-      <c r="C30" s="3">
-        <v>20.109809054109839</v>
-      </c>
-      <c r="D30" s="3">
-        <v>20.6037804033779</v>
-      </c>
-      <c r="E30" s="3">
-        <v>5.3534462466686037</v>
-      </c>
-      <c r="F30" s="3">
-        <v>6.0352606487109357</v>
+      <c r="B30" s="4">
+        <v>468.53405061184441</v>
+      </c>
+      <c r="C30" s="4">
+        <v>79.31158222186437</v>
+      </c>
+      <c r="D30" s="4">
+        <v>8.4759602167535224</v>
+      </c>
+      <c r="E30" s="4">
+        <v>3.1262414077283069</v>
+      </c>
+      <c r="F30" s="4">
+        <v>3.68605786079228</v>
       </c>
       <c r="G30">
-        <v>140.27044331314951</v>
+        <v>563.13389231898293</v>
       </c>
       <c r="H30">
         <v>0.25</v>
@@ -1618,10 +1618,10 @@
         <v>0</v>
       </c>
       <c r="J30">
-        <v>2</v>
-      </c>
-      <c r="K30" s="3">
-        <v>0</v>
+        <v>27</v>
+      </c>
+      <c r="K30" s="4">
+        <v>1</v>
       </c>
       <c r="L30" t="s">
         <v>13</v>
@@ -1631,23 +1631,23 @@
       <c r="A31" t="s">
         <v>11</v>
       </c>
-      <c r="B31" s="3">
-        <v>93.063495560264215</v>
-      </c>
-      <c r="C31" s="3">
-        <v>27.63449944451332</v>
-      </c>
-      <c r="D31" s="3">
-        <v>5.0360611667965518</v>
-      </c>
-      <c r="E31" s="3">
-        <v>2.71761271287094</v>
-      </c>
-      <c r="F31" s="3">
-        <v>2.7394446403130122</v>
+      <c r="B31" s="4">
+        <v>96.201206393947245</v>
+      </c>
+      <c r="C31" s="4">
+        <v>8.6644164211623735</v>
+      </c>
+      <c r="D31" s="4">
+        <v>2.9718457924176338</v>
+      </c>
+      <c r="E31" s="4">
+        <v>2.740653023953985</v>
+      </c>
+      <c r="F31" s="4">
+        <v>3.7294992274479992</v>
       </c>
       <c r="G31">
-        <v>131.19111352475801</v>
+        <v>114.3076208589293</v>
       </c>
       <c r="H31">
         <v>0.25</v>
@@ -1656,10 +1656,10 @@
         <v>0</v>
       </c>
       <c r="J31">
-        <v>5</v>
-      </c>
-      <c r="K31" s="3">
-        <v>0</v>
+        <v>13</v>
+      </c>
+      <c r="K31" s="4">
+        <v>1</v>
       </c>
       <c r="L31" t="s">
         <v>13</v>
@@ -1669,23 +1669,23 @@
       <c r="A32" t="s">
         <v>11</v>
       </c>
-      <c r="B32" s="3">
-        <v>90.603552387532901</v>
-      </c>
-      <c r="C32" s="3">
-        <v>36.61079584293109</v>
-      </c>
-      <c r="D32" s="3">
-        <v>7.0537543384577752</v>
-      </c>
-      <c r="E32" s="3">
-        <v>3.363376908834173</v>
-      </c>
-      <c r="F32" s="3">
-        <v>3.6133312572314789</v>
+      <c r="B32" s="4">
+        <v>256.48442721149371</v>
+      </c>
+      <c r="C32" s="4">
+        <v>55.153414799175067</v>
+      </c>
+      <c r="D32" s="4">
+        <v>15.17508137375766</v>
+      </c>
+      <c r="E32" s="4">
+        <v>6.9085209529379066</v>
+      </c>
+      <c r="F32" s="4">
+        <v>3.9641233324522349</v>
       </c>
       <c r="G32">
-        <v>141.2448107349874</v>
+        <v>337.68556766981658</v>
       </c>
       <c r="H32">
         <v>0.25</v>
@@ -1694,13 +1694,13 @@
         <v>0</v>
       </c>
       <c r="J32">
-        <v>19</v>
-      </c>
-      <c r="K32" s="3">
-        <v>0</v>
+        <v>27</v>
+      </c>
+      <c r="K32" s="4">
+        <v>1</v>
       </c>
       <c r="L32" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.3">
@@ -1708,22 +1708,22 @@
         <v>11</v>
       </c>
       <c r="B33" s="3">
-        <v>693.96076780192891</v>
+        <v>190.87900201766931</v>
       </c>
       <c r="C33" s="3">
-        <v>42.318502130035327</v>
+        <v>11.799465402409609</v>
       </c>
       <c r="D33" s="3">
-        <v>11.449653507550719</v>
+        <v>10.36268598812943</v>
       </c>
       <c r="E33" s="3">
-        <v>4.5452976126587732</v>
+        <v>3.5026512284913021</v>
       </c>
       <c r="F33" s="3">
-        <v>4.3551242665935836</v>
+        <v>4.0903516730178344</v>
       </c>
       <c r="G33">
-        <v>756.62934531876726</v>
+        <v>220.63415630971741</v>
       </c>
       <c r="H33">
         <v>0.25</v>
@@ -1732,13 +1732,13 @@
         <v>0</v>
       </c>
       <c r="J33">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="K33" s="3">
         <v>0</v>
       </c>
       <c r="L33" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.3">
@@ -1746,22 +1746,22 @@
         <v>11</v>
       </c>
       <c r="B34" s="3">
-        <v>100.98857822939151</v>
+        <v>143.70725534523081</v>
       </c>
       <c r="C34" s="3">
-        <v>42.726435901294337</v>
+        <v>11.974956098115641</v>
       </c>
       <c r="D34" s="3">
-        <v>11.684902581728011</v>
+        <v>12.527067660466971</v>
       </c>
       <c r="E34" s="3">
-        <v>6.6448076252011177</v>
+        <v>4.8010916678108426</v>
       </c>
       <c r="F34" s="3">
-        <v>7.5569755731062456</v>
+        <v>4.1118567762584384</v>
       </c>
       <c r="G34">
-        <v>169.60169991072121</v>
+        <v>177.12222754788269</v>
       </c>
       <c r="H34">
         <v>0.25</v>
@@ -1770,7 +1770,7 @@
         <v>0</v>
       </c>
       <c r="J34">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="K34" s="3">
         <v>0</v>
@@ -1784,22 +1784,22 @@
         <v>11</v>
       </c>
       <c r="B35" s="3">
-        <v>107.7549084237971</v>
+        <v>13.41803273474776</v>
       </c>
       <c r="C35" s="3">
-        <v>45.449407604478338</v>
+        <v>25.52474355031929</v>
       </c>
       <c r="D35" s="3">
-        <v>13.295645695702801</v>
+        <v>23.76937655371567</v>
       </c>
       <c r="E35" s="3">
-        <v>17.71503643889541</v>
+        <v>4.8845474709753196</v>
       </c>
       <c r="F35" s="3">
-        <v>40.814794591804763</v>
+        <v>4.1126546338644374</v>
       </c>
       <c r="G35">
-        <v>225.0297927546784</v>
+        <v>71.709354943622486</v>
       </c>
       <c r="H35">
         <v>0.25</v>
@@ -1808,36 +1808,36 @@
         <v>0</v>
       </c>
       <c r="J35">
-        <v>23</v>
+        <v>5</v>
       </c>
       <c r="K35" s="3">
         <v>0</v>
       </c>
       <c r="L35" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>11</v>
       </c>
-      <c r="B36" s="3">
-        <v>707.53058105929733</v>
-      </c>
-      <c r="C36" s="3">
-        <v>51.19197473068273</v>
-      </c>
-      <c r="D36" s="3">
-        <v>8.9192825676029699</v>
-      </c>
-      <c r="E36" s="3">
-        <v>3.8565539526465411</v>
-      </c>
-      <c r="F36" s="3">
-        <v>2.9840494598915068</v>
+      <c r="B36" s="4">
+        <v>211.59567370309321</v>
+      </c>
+      <c r="C36" s="4">
+        <v>24.056250044768721</v>
+      </c>
+      <c r="D36" s="4">
+        <v>9.7441589952634402</v>
+      </c>
+      <c r="E36" s="4">
+        <v>5.8002108170161906</v>
+      </c>
+      <c r="F36" s="4">
+        <v>4.121941655962992</v>
       </c>
       <c r="G36">
-        <v>774.48244177012089</v>
+        <v>255.3182352161046</v>
       </c>
       <c r="H36">
         <v>0.25</v>
@@ -1846,13 +1846,13 @@
         <v>0</v>
       </c>
       <c r="J36">
-        <v>16</v>
-      </c>
-      <c r="K36" s="3">
-        <v>0</v>
+        <v>24</v>
+      </c>
+      <c r="K36" s="4">
+        <v>1</v>
       </c>
       <c r="L36" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.3">
@@ -1860,22 +1860,22 @@
         <v>11</v>
       </c>
       <c r="B37" s="3">
-        <v>305.45823320834359</v>
+        <v>517.88638661510618</v>
       </c>
       <c r="C37" s="3">
-        <v>56.749176305459692</v>
+        <v>37.811215398327263</v>
       </c>
       <c r="D37" s="3">
-        <v>9.1595166197191951</v>
+        <v>11.63586428705926</v>
       </c>
       <c r="E37" s="3">
-        <v>3.9198777500428208</v>
+        <v>5.2388040414136769</v>
       </c>
       <c r="F37" s="3">
-        <v>5.2246031621126043</v>
+        <v>4.1854174743416266</v>
       </c>
       <c r="G37">
-        <v>380.51140704567791</v>
+        <v>576.75768781624799</v>
       </c>
       <c r="H37">
         <v>0.25</v>
@@ -1884,13 +1884,13 @@
         <v>0</v>
       </c>
       <c r="J37">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="K37" s="3">
         <v>0</v>
       </c>
       <c r="L37" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.3">
@@ -1898,22 +1898,22 @@
         <v>11</v>
       </c>
       <c r="B38" s="3">
-        <v>347.42818366087278</v>
+        <v>98.394014425923842</v>
       </c>
       <c r="C38" s="3">
-        <v>57.379791680885212</v>
+        <v>10.269826273971191</v>
       </c>
       <c r="D38" s="3">
-        <v>41.534113196332633</v>
+        <v>23.994811741258541</v>
       </c>
       <c r="E38" s="3">
-        <v>23.214568214844391</v>
+        <v>5.0633091027343573</v>
       </c>
       <c r="F38" s="3">
-        <v>35.690634021055523</v>
+        <v>4.2538337115409304</v>
       </c>
       <c r="G38">
-        <v>505.24729077399058</v>
+        <v>141.97579525542889</v>
       </c>
       <c r="H38">
         <v>0.25</v>
@@ -1922,13 +1922,13 @@
         <v>0</v>
       </c>
       <c r="J38">
+        <v>10</v>
+      </c>
+      <c r="K38" s="3">
+        <v>0</v>
+      </c>
+      <c r="L38" t="s">
         <v>12</v>
-      </c>
-      <c r="K38" s="3">
-        <v>0</v>
-      </c>
-      <c r="L38" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.3">
@@ -1936,22 +1936,22 @@
         <v>11</v>
       </c>
       <c r="B39" s="3">
-        <v>254.83248251842241</v>
+        <v>31.991883912291701</v>
       </c>
       <c r="C39" s="3">
-        <v>57.838368862838891</v>
+        <v>5.8346605956166506</v>
       </c>
       <c r="D39" s="3">
-        <v>10.769227184135479</v>
+        <v>3.114827513130165</v>
       </c>
       <c r="E39" s="3">
-        <v>22.57163740711416</v>
+        <v>2.556030827668339</v>
       </c>
       <c r="F39" s="3">
-        <v>31.226555738148441</v>
+        <v>4.2823571129516358</v>
       </c>
       <c r="G39">
-        <v>377.23827171065938</v>
+        <v>47.779759961658499</v>
       </c>
       <c r="H39">
         <v>0.25</v>
@@ -1960,7 +1960,7 @@
         <v>0</v>
       </c>
       <c r="J39">
-        <v>17</v>
+        <v>4</v>
       </c>
       <c r="K39" s="3">
         <v>0</v>
@@ -1973,23 +1973,23 @@
       <c r="A40" t="s">
         <v>11</v>
       </c>
-      <c r="B40" s="3">
-        <v>509.67805169874669</v>
-      </c>
-      <c r="C40" s="3">
-        <v>57.855332830996169</v>
-      </c>
-      <c r="D40" s="3">
-        <v>5.1405345871796797</v>
-      </c>
-      <c r="E40" s="3">
-        <v>2.289060706170793</v>
-      </c>
-      <c r="F40" s="3">
-        <v>1.955540057545434</v>
+      <c r="B40" s="4">
+        <v>674.01201656520107</v>
+      </c>
+      <c r="C40" s="4">
+        <v>205.62296977354191</v>
+      </c>
+      <c r="D40" s="4">
+        <v>24.936580085091059</v>
+      </c>
+      <c r="E40" s="4">
+        <v>6.8977686736741912</v>
+      </c>
+      <c r="F40" s="4">
+        <v>4.2922802739022039</v>
       </c>
       <c r="G40">
-        <v>576.91851988063877</v>
+        <v>915.76161537141024</v>
       </c>
       <c r="H40">
         <v>0.25</v>
@@ -1998,13 +1998,13 @@
         <v>0</v>
       </c>
       <c r="J40">
-        <v>7</v>
-      </c>
-      <c r="K40" s="3">
-        <v>0</v>
+        <v>16</v>
+      </c>
+      <c r="K40" s="4">
+        <v>1</v>
       </c>
       <c r="L40" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.3">
@@ -2012,22 +2012,22 @@
         <v>11</v>
       </c>
       <c r="B41" s="3">
-        <v>475.15878933113788</v>
+        <v>693.96076780192891</v>
       </c>
       <c r="C41" s="3">
-        <v>59.216559793134429</v>
+        <v>42.318502130035327</v>
       </c>
       <c r="D41" s="3">
-        <v>14.458391941170859</v>
+        <v>11.449653507550719</v>
       </c>
       <c r="E41" s="3">
-        <v>9.8928145964672858</v>
+        <v>4.5452976126587732</v>
       </c>
       <c r="F41" s="3">
-        <v>18.26679653901833</v>
+        <v>4.3551242665935836</v>
       </c>
       <c r="G41">
-        <v>576.99335220092883</v>
+        <v>756.62934531876726</v>
       </c>
       <c r="H41">
         <v>0.25</v>
@@ -2036,7 +2036,7 @@
         <v>0</v>
       </c>
       <c r="J41">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="K41" s="3">
         <v>0</v>
@@ -2050,22 +2050,22 @@
         <v>11</v>
       </c>
       <c r="B42" s="3">
-        <v>490.0828812698752</v>
+        <v>36.949787936586247</v>
       </c>
       <c r="C42" s="3">
-        <v>66.539820807168496</v>
+        <v>34.393598104993231</v>
       </c>
       <c r="D42" s="3">
-        <v>9.4504871147802323</v>
+        <v>9.446143617977059</v>
       </c>
       <c r="E42" s="3">
-        <v>3.2290726067730882</v>
+        <v>4.1955824782794764</v>
       </c>
       <c r="F42" s="3">
-        <v>7.1005304392622879</v>
+        <v>4.7368143152980426</v>
       </c>
       <c r="G42">
-        <v>576.40279223785933</v>
+        <v>89.721926453134046</v>
       </c>
       <c r="H42">
         <v>0.25</v>
@@ -2074,13 +2074,13 @@
         <v>0</v>
       </c>
       <c r="J42">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="K42" s="3">
         <v>0</v>
       </c>
       <c r="L42" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="43" spans="1:12" x14ac:dyDescent="0.3">
@@ -2088,22 +2088,22 @@
         <v>11</v>
       </c>
       <c r="B43" s="3">
-        <v>380.96438473211879</v>
+        <v>83.04189990419215</v>
       </c>
       <c r="C43" s="3">
-        <v>67.066619082445172</v>
+        <v>17.39229385258869</v>
       </c>
       <c r="D43" s="3">
-        <v>16.52687195110985</v>
+        <v>50.167576773811021</v>
       </c>
       <c r="E43" s="3">
-        <v>5.9237022849814593</v>
+        <v>7.9364112621967564</v>
       </c>
       <c r="F43" s="3">
-        <v>5.1570499368076526</v>
+        <v>4.8418354166783093</v>
       </c>
       <c r="G43">
-        <v>475.63862798746311</v>
+        <v>163.3800172094669</v>
       </c>
       <c r="H43">
         <v>0.25</v>
@@ -2112,13 +2112,13 @@
         <v>0</v>
       </c>
       <c r="J43">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="K43" s="3">
         <v>0</v>
       </c>
       <c r="L43" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="44" spans="1:12" x14ac:dyDescent="0.3">
@@ -2126,22 +2126,22 @@
         <v>11</v>
       </c>
       <c r="B44" s="3">
-        <v>522.51689641546818</v>
+        <v>321.90890086468403</v>
       </c>
       <c r="C44" s="3">
-        <v>116.500915483546</v>
+        <v>264.55464494387411</v>
       </c>
       <c r="D44" s="3">
-        <v>12.6331982545064</v>
+        <v>18.932465612808301</v>
       </c>
       <c r="E44" s="3">
-        <v>14.13130624726656</v>
+        <v>9.5743371388665395</v>
       </c>
       <c r="F44" s="3">
-        <v>31.948900996413311</v>
+        <v>5.0845914425587084</v>
       </c>
       <c r="G44">
-        <v>697.73121739720057</v>
+        <v>620.05494000279168</v>
       </c>
       <c r="H44">
         <v>0.25</v>
@@ -2150,7 +2150,7 @@
         <v>0</v>
       </c>
       <c r="J44">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="K44" s="3">
         <v>0</v>
@@ -2163,23 +2163,23 @@
       <c r="A45" t="s">
         <v>11</v>
       </c>
-      <c r="B45" s="3">
-        <v>1251.0556311846101</v>
-      </c>
-      <c r="C45" s="3">
-        <v>163.32991997190649</v>
-      </c>
-      <c r="D45" s="3">
-        <v>26.816064444142022</v>
-      </c>
-      <c r="E45" s="3">
-        <v>10.81529716173609</v>
-      </c>
-      <c r="F45" s="3">
-        <v>11.2028462883082</v>
+      <c r="B45" s="4">
+        <v>1471.68914504144</v>
+      </c>
+      <c r="C45" s="4">
+        <v>393.21972024629412</v>
+      </c>
+      <c r="D45" s="4">
+        <v>37.953257360636243</v>
+      </c>
+      <c r="E45" s="4">
+        <v>6.5353457227144931</v>
+      </c>
+      <c r="F45" s="4">
+        <v>5.0881565559468207</v>
       </c>
       <c r="G45">
-        <v>1463.219759050703</v>
+        <v>1914.4856249270319</v>
       </c>
       <c r="H45">
         <v>0.25</v>
@@ -2188,13 +2188,13 @@
         <v>0</v>
       </c>
       <c r="J45">
-        <v>21</v>
-      </c>
-      <c r="K45" s="3">
-        <v>0</v>
+        <v>8</v>
+      </c>
+      <c r="K45" s="4">
+        <v>1</v>
       </c>
       <c r="L45" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="46" spans="1:12" x14ac:dyDescent="0.3">
@@ -2202,22 +2202,22 @@
         <v>11</v>
       </c>
       <c r="B46" s="3">
-        <v>321.90890086468403</v>
+        <v>380.96438473211879</v>
       </c>
       <c r="C46" s="3">
-        <v>264.55464494387411</v>
+        <v>67.066619082445172</v>
       </c>
       <c r="D46" s="3">
-        <v>18.932465612808301</v>
+        <v>16.52687195110985</v>
       </c>
       <c r="E46" s="3">
-        <v>9.5743371388665395</v>
+        <v>5.9237022849814593</v>
       </c>
       <c r="F46" s="3">
-        <v>5.0845914425587084</v>
+        <v>5.1570499368076526</v>
       </c>
       <c r="G46">
-        <v>620.05494000279168</v>
+        <v>475.63862798746311</v>
       </c>
       <c r="H46">
         <v>0.25</v>
@@ -2226,7 +2226,7 @@
         <v>0</v>
       </c>
       <c r="J46">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="K46" s="3">
         <v>0</v>
@@ -2240,22 +2240,22 @@
         <v>11</v>
       </c>
       <c r="B47" s="3">
-        <v>985.54591185643699</v>
+        <v>305.45823320834359</v>
       </c>
       <c r="C47" s="3">
-        <v>124.72507875094119</v>
+        <v>56.749176305459692</v>
       </c>
       <c r="D47" s="3">
-        <v>11.09205476753367</v>
+        <v>9.1595166197191951</v>
       </c>
       <c r="E47" s="3">
-        <v>3.6191970186581028</v>
+        <v>3.9198777500428208</v>
       </c>
       <c r="F47" s="3">
-        <v>2.7156449479888041</v>
+        <v>5.2246031621126043</v>
       </c>
       <c r="G47">
-        <v>1127.697887341559</v>
+        <v>380.51140704567791</v>
       </c>
       <c r="H47">
         <v>0.25</v>
@@ -2264,36 +2264,36 @@
         <v>0</v>
       </c>
       <c r="J47">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="K47" s="3">
         <v>0</v>
       </c>
       <c r="L47" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="48" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>11</v>
       </c>
-      <c r="B48" s="3">
-        <v>281.07109522258048</v>
-      </c>
-      <c r="C48" s="3">
-        <v>75.225791332294264</v>
-      </c>
-      <c r="D48" s="3">
-        <v>15.71128305114871</v>
-      </c>
-      <c r="E48" s="3">
-        <v>5.3545626906779349</v>
-      </c>
-      <c r="F48" s="3">
-        <v>3.670880149445034</v>
+      <c r="B48" s="4">
+        <v>1516.2883859323181</v>
+      </c>
+      <c r="C48" s="4">
+        <v>530.09234103455287</v>
+      </c>
+      <c r="D48" s="4">
+        <v>100.4874068955361</v>
+      </c>
+      <c r="E48" s="4">
+        <v>16.758021925794171</v>
+      </c>
+      <c r="F48" s="4">
+        <v>5.3924201208935338</v>
       </c>
       <c r="G48">
-        <v>381.03361244614649</v>
+        <v>2169.018575909095</v>
       </c>
       <c r="H48">
         <v>0.25</v>
@@ -2302,36 +2302,36 @@
         <v>0</v>
       </c>
       <c r="J48">
-        <v>14</v>
-      </c>
-      <c r="K48" s="3">
-        <v>0</v>
+        <v>5</v>
+      </c>
+      <c r="K48" s="4">
+        <v>1</v>
       </c>
       <c r="L48" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="49" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>11</v>
       </c>
-      <c r="B49" s="3">
-        <v>209.06163229634549</v>
-      </c>
-      <c r="C49" s="3">
-        <v>49.461305950907658</v>
-      </c>
-      <c r="D49" s="3">
-        <v>18.362382217662368</v>
-      </c>
-      <c r="E49" s="3">
-        <v>6.0136261455298659</v>
-      </c>
-      <c r="F49" s="3">
-        <v>5.7413649654974153</v>
+      <c r="B49" s="4">
+        <v>203.09248334509439</v>
+      </c>
+      <c r="C49" s="4">
+        <v>8.1168008753453282</v>
+      </c>
+      <c r="D49" s="4">
+        <v>35.659761598708101</v>
+      </c>
+      <c r="E49" s="4">
+        <v>9.4976545834315225</v>
+      </c>
+      <c r="F49" s="4">
+        <v>5.4312165075770169</v>
       </c>
       <c r="G49">
-        <v>288.6403115759428</v>
+        <v>261.79791691015652</v>
       </c>
       <c r="H49">
         <v>0.25</v>
@@ -2340,13 +2340,13 @@
         <v>0</v>
       </c>
       <c r="J49">
-        <v>6</v>
-      </c>
-      <c r="K49" s="3">
-        <v>0</v>
+        <v>25</v>
+      </c>
+      <c r="K49" s="4">
+        <v>1</v>
       </c>
       <c r="L49" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="50" spans="1:12" x14ac:dyDescent="0.3">
@@ -2354,22 +2354,22 @@
         <v>11</v>
       </c>
       <c r="B50" s="3">
-        <v>166.1842774641203</v>
+        <v>47.652399064768893</v>
       </c>
       <c r="C50" s="3">
-        <v>49.35477862731112</v>
+        <v>23.675378400347089</v>
       </c>
       <c r="D50" s="3">
-        <v>10.465526124397931</v>
+        <v>31.030182383064862</v>
       </c>
       <c r="E50" s="3">
-        <v>4.4555976283286398</v>
+        <v>4.8184601383725694</v>
       </c>
       <c r="F50" s="3">
-        <v>5.8025203511498171</v>
+        <v>5.5038503214022656</v>
       </c>
       <c r="G50">
-        <v>236.2627001953079</v>
+        <v>112.68027030795569</v>
       </c>
       <c r="H50">
         <v>0.25</v>
@@ -2378,36 +2378,36 @@
         <v>0</v>
       </c>
       <c r="J50">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="K50" s="3">
         <v>0</v>
       </c>
       <c r="L50" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="51" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>11</v>
       </c>
-      <c r="B51" s="3">
-        <v>166.1842774641203</v>
-      </c>
-      <c r="C51" s="3">
-        <v>49.35477862731112</v>
-      </c>
-      <c r="D51" s="3">
-        <v>10.465526124397931</v>
-      </c>
-      <c r="E51" s="3">
-        <v>4.4555976283286398</v>
-      </c>
-      <c r="F51" s="3">
-        <v>5.8025203511498171</v>
+      <c r="B51" s="4">
+        <v>757.29620050469816</v>
+      </c>
+      <c r="C51" s="4">
+        <v>205.2390827210703</v>
+      </c>
+      <c r="D51" s="4">
+        <v>28.92576398506559</v>
+      </c>
+      <c r="E51" s="4">
+        <v>12.29359738284494</v>
+      </c>
+      <c r="F51" s="4">
+        <v>5.5356507893742704</v>
       </c>
       <c r="G51">
-        <v>236.2627001953079</v>
+        <v>1009.290295383053</v>
       </c>
       <c r="H51">
         <v>0.25</v>
@@ -2416,10 +2416,10 @@
         <v>0</v>
       </c>
       <c r="J51">
-        <v>2</v>
-      </c>
-      <c r="K51" s="3">
-        <v>0</v>
+        <v>18</v>
+      </c>
+      <c r="K51" s="4">
+        <v>1</v>
       </c>
       <c r="L51" t="s">
         <v>14</v>
@@ -2429,23 +2429,23 @@
       <c r="A52" t="s">
         <v>11</v>
       </c>
-      <c r="B52" s="3">
-        <v>166.1842774641203</v>
-      </c>
-      <c r="C52" s="3">
-        <v>49.35477862731112</v>
-      </c>
-      <c r="D52" s="3">
-        <v>10.465526124397931</v>
-      </c>
-      <c r="E52" s="3">
-        <v>4.4555976283286398</v>
-      </c>
-      <c r="F52" s="3">
-        <v>5.8025203511498171</v>
+      <c r="B52" s="4">
+        <v>341.85455711319162</v>
+      </c>
+      <c r="C52" s="4">
+        <v>27.241427451006949</v>
+      </c>
+      <c r="D52" s="4">
+        <v>5.4075132234703682</v>
+      </c>
+      <c r="E52" s="4">
+        <v>4.3244354587888942</v>
+      </c>
+      <c r="F52" s="4">
+        <v>5.5450629965883707</v>
       </c>
       <c r="G52">
-        <v>236.2627001953079</v>
+        <v>384.37299624304632</v>
       </c>
       <c r="H52">
         <v>0.25</v>
@@ -2454,10 +2454,10 @@
         <v>0</v>
       </c>
       <c r="J52">
-        <v>3</v>
-      </c>
-      <c r="K52" s="3">
-        <v>0</v>
+        <v>12</v>
+      </c>
+      <c r="K52" s="4">
+        <v>1</v>
       </c>
       <c r="L52" t="s">
         <v>14</v>
@@ -2468,22 +2468,22 @@
         <v>11</v>
       </c>
       <c r="B53" s="3">
-        <v>166.1842774641203</v>
+        <v>18.040036227670001</v>
       </c>
       <c r="C53" s="3">
-        <v>49.35477862731112</v>
+        <v>46.406052018667012</v>
       </c>
       <c r="D53" s="3">
-        <v>10.465526124397931</v>
+        <v>18.678188724228949</v>
       </c>
       <c r="E53" s="3">
-        <v>4.4555976283286398</v>
+        <v>4.1654475453916042</v>
       </c>
       <c r="F53" s="3">
-        <v>5.8025203511498171</v>
+        <v>5.5767867500979289</v>
       </c>
       <c r="G53">
-        <v>236.2627001953079</v>
+        <v>92.866511266055511</v>
       </c>
       <c r="H53">
         <v>0.25</v>
@@ -2492,36 +2492,36 @@
         <v>0</v>
       </c>
       <c r="J53">
-        <v>4</v>
+        <v>24</v>
       </c>
       <c r="K53" s="3">
         <v>0</v>
       </c>
       <c r="L53" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="54" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>11</v>
       </c>
-      <c r="B54" s="3">
-        <v>166.1842774641203</v>
-      </c>
-      <c r="C54" s="3">
-        <v>49.35477862731112</v>
-      </c>
-      <c r="D54" s="3">
-        <v>10.465526124397931</v>
-      </c>
-      <c r="E54" s="3">
-        <v>4.4555976283286398</v>
-      </c>
-      <c r="F54" s="3">
-        <v>5.8025203511498171</v>
+      <c r="B54" s="4">
+        <v>1830.648185677645</v>
+      </c>
+      <c r="C54" s="4">
+        <v>252.47871782837279</v>
+      </c>
+      <c r="D54" s="4">
+        <v>19.039748853638589</v>
+      </c>
+      <c r="E54" s="4">
+        <v>5.5516522650791602</v>
+      </c>
+      <c r="F54" s="4">
+        <v>5.61422122696065</v>
       </c>
       <c r="G54">
-        <v>236.2627001953079</v>
+        <v>2113.3325258516961</v>
       </c>
       <c r="H54">
         <v>0.25</v>
@@ -2530,10 +2530,10 @@
         <v>0</v>
       </c>
       <c r="J54">
-        <v>9</v>
-      </c>
-      <c r="K54" s="3">
-        <v>0</v>
+        <v>26</v>
+      </c>
+      <c r="K54" s="4">
+        <v>1</v>
       </c>
       <c r="L54" t="s">
         <v>14</v>
@@ -2543,23 +2543,23 @@
       <c r="A55" t="s">
         <v>11</v>
       </c>
-      <c r="B55" s="3">
-        <v>166.1842774641203</v>
-      </c>
-      <c r="C55" s="3">
-        <v>49.35477862731112</v>
-      </c>
-      <c r="D55" s="3">
-        <v>10.465526124397931</v>
-      </c>
-      <c r="E55" s="3">
-        <v>4.4555976283286398</v>
-      </c>
-      <c r="F55" s="3">
-        <v>5.8025203511498171</v>
+      <c r="B55" s="4">
+        <v>14.20465761840973</v>
+      </c>
+      <c r="C55" s="4">
+        <v>5.7923228198002308</v>
+      </c>
+      <c r="D55" s="4">
+        <v>5.2933295307290367</v>
+      </c>
+      <c r="E55" s="4">
+        <v>6.1771993424124609</v>
+      </c>
+      <c r="F55" s="4">
+        <v>5.6405008941544104</v>
       </c>
       <c r="G55">
-        <v>236.2627001953079</v>
+        <v>37.108010205505863</v>
       </c>
       <c r="H55">
         <v>0.25</v>
@@ -2568,36 +2568,36 @@
         <v>0</v>
       </c>
       <c r="J55">
+        <v>2</v>
+      </c>
+      <c r="K55" s="4">
+        <v>1</v>
+      </c>
+      <c r="L55" t="s">
         <v>12</v>
-      </c>
-      <c r="K55" s="3">
-        <v>0</v>
-      </c>
-      <c r="L55" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="56" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>11</v>
       </c>
-      <c r="B56" s="3">
-        <v>166.1842774641203</v>
-      </c>
-      <c r="C56" s="3">
-        <v>49.35477862731112</v>
-      </c>
-      <c r="D56" s="3">
-        <v>10.465526124397931</v>
-      </c>
-      <c r="E56" s="3">
-        <v>4.4555976283286398</v>
-      </c>
-      <c r="F56" s="3">
-        <v>5.8025203511498171</v>
+      <c r="B56" s="4">
+        <v>26.47596470587154</v>
+      </c>
+      <c r="C56" s="4">
+        <v>10.183412495948559</v>
+      </c>
+      <c r="D56" s="4">
+        <v>10.28804614271175</v>
+      </c>
+      <c r="E56" s="4">
+        <v>10.739355124671199</v>
+      </c>
+      <c r="F56" s="4">
+        <v>5.7242221689278354</v>
       </c>
       <c r="G56">
-        <v>236.2627001953079</v>
+        <v>63.411000638130893</v>
       </c>
       <c r="H56">
         <v>0.25</v>
@@ -2606,13 +2606,13 @@
         <v>0</v>
       </c>
       <c r="J56">
-        <v>16</v>
-      </c>
-      <c r="K56" s="3">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="K56" s="4">
+        <v>1</v>
       </c>
       <c r="L56" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="57" spans="1:12" x14ac:dyDescent="0.3">
@@ -2620,22 +2620,22 @@
         <v>11</v>
       </c>
       <c r="B57" s="3">
-        <v>166.1842774641203</v>
+        <v>209.06163229634549</v>
       </c>
       <c r="C57" s="3">
-        <v>49.35477862731112</v>
+        <v>49.461305950907658</v>
       </c>
       <c r="D57" s="3">
-        <v>10.465526124397931</v>
+        <v>18.362382217662368</v>
       </c>
       <c r="E57" s="3">
-        <v>4.4555976283286398</v>
+        <v>6.0136261455298659</v>
       </c>
       <c r="F57" s="3">
-        <v>5.8025203511498171</v>
+        <v>5.7413649654974153</v>
       </c>
       <c r="G57">
-        <v>236.2627001953079</v>
+        <v>288.6403115759428</v>
       </c>
       <c r="H57">
         <v>0.25</v>
@@ -2644,7 +2644,7 @@
         <v>0</v>
       </c>
       <c r="J57">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="K57" s="3">
         <v>0</v>
@@ -2657,23 +2657,23 @@
       <c r="A58" t="s">
         <v>11</v>
       </c>
-      <c r="B58" s="3">
-        <v>166.1842774641203</v>
-      </c>
-      <c r="C58" s="3">
-        <v>49.35477862731112</v>
-      </c>
-      <c r="D58" s="3">
-        <v>10.465526124397931</v>
-      </c>
-      <c r="E58" s="3">
-        <v>4.4555976283286398</v>
-      </c>
-      <c r="F58" s="3">
-        <v>5.8025203511498171</v>
+      <c r="B58" s="4">
+        <v>130.3631289273103</v>
+      </c>
+      <c r="C58" s="4">
+        <v>22.407656576191179</v>
+      </c>
+      <c r="D58" s="4">
+        <v>13.21652168744609</v>
+      </c>
+      <c r="E58" s="4">
+        <v>7.2476802343722646</v>
+      </c>
+      <c r="F58" s="4">
+        <v>5.7663057632039756</v>
       </c>
       <c r="G58">
-        <v>236.2627001953079</v>
+        <v>179.00129318852379</v>
       </c>
       <c r="H58">
         <v>0.25</v>
@@ -2682,13 +2682,13 @@
         <v>0</v>
       </c>
       <c r="J58">
-        <v>22</v>
-      </c>
-      <c r="K58" s="3">
-        <v>0</v>
+        <v>25</v>
+      </c>
+      <c r="K58" s="4">
+        <v>1</v>
       </c>
       <c r="L58" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="59" spans="1:12" x14ac:dyDescent="0.3">
@@ -2696,22 +2696,22 @@
         <v>11</v>
       </c>
       <c r="B59" s="3">
-        <v>150.63252333138649</v>
+        <v>166.1842774641203</v>
       </c>
       <c r="C59" s="3">
-        <v>53.828457921979783</v>
+        <v>49.35477862731112</v>
       </c>
       <c r="D59" s="3">
-        <v>7.5261886173718464</v>
+        <v>10.465526124397931</v>
       </c>
       <c r="E59" s="3">
-        <v>5.4765251266768047</v>
+        <v>4.4555976283286398</v>
       </c>
       <c r="F59" s="3">
-        <v>6.6900130570488496</v>
+        <v>5.8025203511498171</v>
       </c>
       <c r="G59">
-        <v>224.15370805446381</v>
+        <v>236.2627001953079</v>
       </c>
       <c r="H59">
         <v>0.25</v>
@@ -2720,7 +2720,7 @@
         <v>0</v>
       </c>
       <c r="J59">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="K59" s="3">
         <v>0</v>
@@ -2734,22 +2734,22 @@
         <v>11</v>
       </c>
       <c r="B60" s="3">
-        <v>1991.2868223592841</v>
+        <v>166.1842774641203</v>
       </c>
       <c r="C60" s="3">
-        <v>125.4283495015565</v>
+        <v>49.35477862731112</v>
       </c>
       <c r="D60" s="3">
-        <v>11.714530661927389</v>
+        <v>10.465526124397931</v>
       </c>
       <c r="E60" s="3">
-        <v>5.5043231196026996</v>
+        <v>4.4555976283286398</v>
       </c>
       <c r="F60" s="3">
-        <v>6.8663668268650024</v>
+        <v>5.8025203511498171</v>
       </c>
       <c r="G60">
-        <v>2140.8003924692362</v>
+        <v>236.2627001953079</v>
       </c>
       <c r="H60">
         <v>0.25</v>
@@ -2758,7 +2758,7 @@
         <v>0</v>
       </c>
       <c r="J60">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="K60" s="3">
         <v>0</v>
@@ -2772,22 +2772,22 @@
         <v>11</v>
       </c>
       <c r="B61" s="3">
-        <v>694.55710322070399</v>
+        <v>166.1842774641203</v>
       </c>
       <c r="C61" s="3">
-        <v>336.46264129678968</v>
+        <v>49.35477862731112</v>
       </c>
       <c r="D61" s="3">
-        <v>23.103884597924779</v>
+        <v>10.465526124397931</v>
       </c>
       <c r="E61" s="3">
-        <v>13.19675940021115</v>
+        <v>4.4555976283286398</v>
       </c>
       <c r="F61" s="3">
-        <v>9.6404843816495021</v>
+        <v>5.8025203511498171</v>
       </c>
       <c r="G61">
-        <v>1076.9608728972789</v>
+        <v>236.2627001953079</v>
       </c>
       <c r="H61">
         <v>0.25</v>
@@ -2796,7 +2796,7 @@
         <v>0</v>
       </c>
       <c r="J61">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="K61" s="3">
         <v>0</v>
@@ -2810,22 +2810,22 @@
         <v>11</v>
       </c>
       <c r="B62" s="3">
-        <v>1101.030498046965</v>
+        <v>166.1842774641203</v>
       </c>
       <c r="C62" s="3">
-        <v>204.24573752143419</v>
+        <v>49.35477862731112</v>
       </c>
       <c r="D62" s="3">
-        <v>34.175963651973603</v>
+        <v>10.465526124397931</v>
       </c>
       <c r="E62" s="3">
-        <v>10.24387876814686</v>
+        <v>4.4555976283286398</v>
       </c>
       <c r="F62" s="3">
-        <v>9.8375736197958883</v>
+        <v>5.8025203511498171</v>
       </c>
       <c r="G62">
-        <v>1359.5336516083159</v>
+        <v>236.2627001953079</v>
       </c>
       <c r="H62">
         <v>0.25</v>
@@ -2834,7 +2834,7 @@
         <v>0</v>
       </c>
       <c r="J62">
-        <v>19</v>
+        <v>4</v>
       </c>
       <c r="K62" s="3">
         <v>0</v>
@@ -2848,22 +2848,22 @@
         <v>11</v>
       </c>
       <c r="B63" s="3">
-        <v>446.37533521668507</v>
+        <v>166.1842774641203</v>
       </c>
       <c r="C63" s="3">
-        <v>81.591940506042533</v>
+        <v>49.35477862731112</v>
       </c>
       <c r="D63" s="3">
-        <v>23.95953355837818</v>
+        <v>10.465526124397931</v>
       </c>
       <c r="E63" s="3">
-        <v>10.41518077389471</v>
+        <v>4.4555976283286398</v>
       </c>
       <c r="F63" s="3">
-        <v>14.908948125756259</v>
+        <v>5.8025203511498171</v>
       </c>
       <c r="G63">
-        <v>577.25093818075675</v>
+        <v>236.2627001953079</v>
       </c>
       <c r="H63">
         <v>0.25</v>
@@ -2872,7 +2872,7 @@
         <v>0</v>
       </c>
       <c r="J63">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="K63" s="3">
         <v>0</v>
@@ -2886,22 +2886,22 @@
         <v>11</v>
       </c>
       <c r="B64" s="3">
-        <v>346.79162911138258</v>
+        <v>166.1842774641203</v>
       </c>
       <c r="C64" s="3">
-        <v>146.32164559845569</v>
+        <v>49.35477862731112</v>
       </c>
       <c r="D64" s="3">
-        <v>11.53785444674832</v>
+        <v>10.465526124397931</v>
       </c>
       <c r="E64" s="3">
-        <v>8.033143863679701</v>
+        <v>4.4555976283286398</v>
       </c>
       <c r="F64" s="3">
-        <v>18.088746490331221</v>
+        <v>5.8025203511498171</v>
       </c>
       <c r="G64">
-        <v>530.77301951059769</v>
+        <v>236.2627001953079</v>
       </c>
       <c r="H64">
         <v>0.25</v>
@@ -2910,7 +2910,7 @@
         <v>0</v>
       </c>
       <c r="J64">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="K64" s="3">
         <v>0</v>
@@ -2924,22 +2924,22 @@
         <v>11</v>
       </c>
       <c r="B65" s="3">
-        <v>287.10054208180941</v>
+        <v>166.1842774641203</v>
       </c>
       <c r="C65" s="3">
-        <v>82.824454242349006</v>
+        <v>49.35477862731112</v>
       </c>
       <c r="D65" s="3">
-        <v>13.28331729260365</v>
+        <v>10.465526124397931</v>
       </c>
       <c r="E65" s="3">
-        <v>9.5604151794134058</v>
+        <v>4.4555976283286398</v>
       </c>
       <c r="F65" s="3">
-        <v>21.758898491151459</v>
+        <v>5.8025203511498171</v>
       </c>
       <c r="G65">
-        <v>414.52762728732688</v>
+        <v>236.2627001953079</v>
       </c>
       <c r="H65">
         <v>0.25</v>
@@ -2948,7 +2948,7 @@
         <v>0</v>
       </c>
       <c r="J65">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="K65" s="3">
         <v>0</v>
@@ -2962,22 +2962,22 @@
         <v>11</v>
       </c>
       <c r="B66" s="3">
-        <v>114.6745030308914</v>
+        <v>166.1842774641203</v>
       </c>
       <c r="C66" s="3">
-        <v>52.625968462794539</v>
+        <v>49.35477862731112</v>
       </c>
       <c r="D66" s="3">
-        <v>16.336556976463381</v>
+        <v>10.465526124397931</v>
       </c>
       <c r="E66" s="3">
-        <v>13.76952663342751</v>
+        <v>4.4555976283286398</v>
       </c>
       <c r="F66" s="3">
-        <v>27.507553790762561</v>
+        <v>5.8025203511498171</v>
       </c>
       <c r="G66">
-        <v>224.91410889433939</v>
+        <v>236.2627001953079</v>
       </c>
       <c r="H66">
         <v>0.25</v>
@@ -2986,7 +2986,7 @@
         <v>0</v>
       </c>
       <c r="J66">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="K66" s="3">
         <v>0</v>
@@ -3000,22 +3000,22 @@
         <v>11</v>
       </c>
       <c r="B67" s="3">
-        <v>608.29940251165795</v>
+        <v>166.1842774641203</v>
       </c>
       <c r="C67" s="3">
-        <v>223.11130625327201</v>
+        <v>49.35477862731112</v>
       </c>
       <c r="D67" s="3">
-        <v>68.879390323298281</v>
+        <v>10.465526124397931</v>
       </c>
       <c r="E67" s="3">
-        <v>53.276324268476351</v>
+        <v>4.4555976283286398</v>
       </c>
       <c r="F67" s="3">
-        <v>40.434983481913839</v>
+        <v>5.8025203511498171</v>
       </c>
       <c r="G67">
-        <v>994.00140683861866</v>
+        <v>236.2627001953079</v>
       </c>
       <c r="H67">
         <v>0.25</v>
@@ -3024,7 +3024,7 @@
         <v>0</v>
       </c>
       <c r="J67">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="K67" s="3">
         <v>0</v>
@@ -3037,23 +3037,23 @@
       <c r="A68" t="s">
         <v>11</v>
       </c>
-      <c r="B68" s="3">
-        <v>5061.5609306900697</v>
-      </c>
-      <c r="C68" s="3">
-        <v>816.1718269621939</v>
-      </c>
-      <c r="D68" s="3">
-        <v>143.15565512741631</v>
-      </c>
-      <c r="E68" s="3">
-        <v>134.752116767909</v>
-      </c>
-      <c r="F68" s="3">
-        <v>225.39884078746999</v>
+      <c r="B68" s="4">
+        <v>18.13336235145713</v>
+      </c>
+      <c r="C68" s="4">
+        <v>44.099137000495901</v>
+      </c>
+      <c r="D68" s="4">
+        <v>25.03176878474838</v>
+      </c>
+      <c r="E68" s="4">
+        <v>12.36614291838846</v>
+      </c>
+      <c r="F68" s="4">
+        <v>5.9706869927712614</v>
       </c>
       <c r="G68">
-        <v>6381.039370335061</v>
+        <v>105.6010980478611</v>
       </c>
       <c r="H68">
         <v>0.25</v>
@@ -3062,36 +3062,36 @@
         <v>0</v>
       </c>
       <c r="J68">
-        <v>24</v>
-      </c>
-      <c r="K68" s="3">
-        <v>0</v>
+        <v>10</v>
+      </c>
+      <c r="K68" s="4">
+        <v>1</v>
       </c>
       <c r="L68" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="69" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>11</v>
       </c>
-      <c r="B69" s="4">
-        <v>17.606689762272168</v>
-      </c>
-      <c r="C69" s="4">
-        <v>4.2579501840670062</v>
-      </c>
-      <c r="D69" s="4">
-        <v>9.4851571208813059</v>
-      </c>
-      <c r="E69" s="4">
-        <v>3.4380005502492978</v>
-      </c>
-      <c r="F69" s="4">
-        <v>1.829534190037561</v>
+      <c r="B69" s="3">
+        <v>88.168146960282229</v>
+      </c>
+      <c r="C69" s="3">
+        <v>20.109809054109839</v>
+      </c>
+      <c r="D69" s="3">
+        <v>20.6037804033779</v>
+      </c>
+      <c r="E69" s="3">
+        <v>5.3534462466686037</v>
+      </c>
+      <c r="F69" s="3">
+        <v>6.0352606487109357</v>
       </c>
       <c r="G69">
-        <v>36.617331807507341</v>
+        <v>140.27044331314951</v>
       </c>
       <c r="H69">
         <v>0.25</v>
@@ -3100,36 +3100,36 @@
         <v>0</v>
       </c>
       <c r="J69">
-        <v>11</v>
-      </c>
-      <c r="K69" s="4">
-        <v>1</v>
+        <v>2</v>
+      </c>
+      <c r="K69" s="3">
+        <v>0</v>
       </c>
       <c r="L69" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="70" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>11</v>
       </c>
-      <c r="B70" s="4">
-        <v>8.8329868238128331</v>
-      </c>
-      <c r="C70" s="4">
-        <v>6.5122076353828042</v>
-      </c>
-      <c r="D70" s="4">
-        <v>5.7003442584320334</v>
-      </c>
-      <c r="E70" s="4">
-        <v>2.912298484642414</v>
-      </c>
-      <c r="F70" s="4">
-        <v>1.9020653358209241</v>
+      <c r="B70" s="3">
+        <v>16.761593838906261</v>
+      </c>
+      <c r="C70" s="3">
+        <v>36.934497920327892</v>
+      </c>
+      <c r="D70" s="3">
+        <v>29.253545568080259</v>
+      </c>
+      <c r="E70" s="3">
+        <v>7.4497862898445426</v>
+      </c>
+      <c r="F70" s="3">
+        <v>6.2491550074361459</v>
       </c>
       <c r="G70">
-        <v>25.859902538090999</v>
+        <v>96.648578624595075</v>
       </c>
       <c r="H70">
         <v>0.25</v>
@@ -3138,10 +3138,10 @@
         <v>0</v>
       </c>
       <c r="J70">
-        <v>9</v>
-      </c>
-      <c r="K70" s="4">
-        <v>1</v>
+        <v>13</v>
+      </c>
+      <c r="K70" s="3">
+        <v>0</v>
       </c>
       <c r="L70" t="s">
         <v>12</v>
@@ -3152,22 +3152,22 @@
         <v>11</v>
       </c>
       <c r="B71" s="4">
-        <v>16.758807962675</v>
+        <v>21.285463917083849</v>
       </c>
       <c r="C71" s="4">
-        <v>11.14700057531293</v>
+        <v>23.66681727617911</v>
       </c>
       <c r="D71" s="4">
-        <v>9.6208501482074116</v>
+        <v>80.367539570473809</v>
       </c>
       <c r="E71" s="4">
-        <v>2.7789826661302008</v>
+        <v>9.7973824334841915</v>
       </c>
       <c r="F71" s="4">
-        <v>1.9890552852700141</v>
+        <v>6.3957885094037099</v>
       </c>
       <c r="G71">
-        <v>42.29469663759555</v>
+        <v>141.51299170662469</v>
       </c>
       <c r="H71">
         <v>0.25</v>
@@ -3176,7 +3176,7 @@
         <v>0</v>
       </c>
       <c r="J71">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="K71" s="4">
         <v>1</v>
@@ -3190,22 +3190,22 @@
         <v>11</v>
       </c>
       <c r="B72" s="4">
-        <v>21.766712427253491</v>
+        <v>722.824261047969</v>
       </c>
       <c r="C72" s="4">
-        <v>15.51321796605084</v>
+        <v>131.80198749250471</v>
       </c>
       <c r="D72" s="4">
-        <v>17.390447187576999</v>
+        <v>17.353087200068991</v>
       </c>
       <c r="E72" s="4">
-        <v>3.1711411261754479</v>
+        <v>6.6103537891990607</v>
       </c>
       <c r="F72" s="4">
-        <v>2.2550466214231788</v>
+        <v>6.4118095514198581</v>
       </c>
       <c r="G72">
-        <v>60.096565328479947</v>
+        <v>885.00149908116157</v>
       </c>
       <c r="H72">
         <v>0.25</v>
@@ -3214,13 +3214,13 @@
         <v>0</v>
       </c>
       <c r="J72">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="K72" s="4">
         <v>1</v>
       </c>
       <c r="L72" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="73" spans="1:12" x14ac:dyDescent="0.3">
@@ -3228,22 +3228,22 @@
         <v>11</v>
       </c>
       <c r="B73" s="4">
-        <v>32.346328880581737</v>
+        <v>24.48681635399835</v>
       </c>
       <c r="C73" s="4">
-        <v>10.390728956484541</v>
+        <v>8.9827723777027071</v>
       </c>
       <c r="D73" s="4">
-        <v>6.411507745651293</v>
+        <v>16.318410233041611</v>
       </c>
       <c r="E73" s="4">
-        <v>3.6765653536119691</v>
+        <v>6.505931984973504</v>
       </c>
       <c r="F73" s="4">
-        <v>2.4967556655091672</v>
+        <v>6.4772360538844662</v>
       </c>
       <c r="G73">
-        <v>55.321886601838713</v>
+        <v>62.771167003600631</v>
       </c>
       <c r="H73">
         <v>0.25</v>
@@ -3252,7 +3252,7 @@
         <v>0</v>
       </c>
       <c r="J73">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="K73" s="4">
         <v>1</v>
@@ -3266,22 +3266,22 @@
         <v>11</v>
       </c>
       <c r="B74" s="4">
-        <v>85.158604490631063</v>
+        <v>168.5308527163713</v>
       </c>
       <c r="C74" s="4">
-        <v>17.65153890107695</v>
+        <v>38.034659895820241</v>
       </c>
       <c r="D74" s="4">
-        <v>3.0639940003448629</v>
+        <v>22.931826646584181</v>
       </c>
       <c r="E74" s="4">
-        <v>5.3745349397215367</v>
+        <v>10.328370348940251</v>
       </c>
       <c r="F74" s="4">
-        <v>2.5849556550062109</v>
+        <v>6.6854054056822623</v>
       </c>
       <c r="G74">
-        <v>113.8336279867806</v>
+        <v>246.5111150133983</v>
       </c>
       <c r="H74">
         <v>0.25</v>
@@ -3290,36 +3290,36 @@
         <v>0</v>
       </c>
       <c r="J74">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="K74" s="4">
         <v>1</v>
       </c>
       <c r="L74" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="75" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>11</v>
       </c>
-      <c r="B75" s="4">
-        <v>22.742066915105688</v>
-      </c>
-      <c r="C75" s="4">
-        <v>12.347046364206561</v>
-      </c>
-      <c r="D75" s="4">
-        <v>36.263742991154707</v>
-      </c>
-      <c r="E75" s="4">
-        <v>9.5846228731881737</v>
-      </c>
-      <c r="F75" s="4">
-        <v>3.0449749695510659</v>
+      <c r="B75" s="3">
+        <v>150.63252333138649</v>
+      </c>
+      <c r="C75" s="3">
+        <v>53.828457921979783</v>
+      </c>
+      <c r="D75" s="3">
+        <v>7.5261886173718464</v>
+      </c>
+      <c r="E75" s="3">
+        <v>5.4765251266768047</v>
+      </c>
+      <c r="F75" s="3">
+        <v>6.6900130570488496</v>
       </c>
       <c r="G75">
-        <v>83.982454113206202</v>
+        <v>224.15370805446381</v>
       </c>
       <c r="H75">
         <v>0.25</v>
@@ -3328,13 +3328,13 @@
         <v>0</v>
       </c>
       <c r="J75">
-        <v>15</v>
-      </c>
-      <c r="K75" s="4">
-        <v>1</v>
+        <v>5</v>
+      </c>
+      <c r="K75" s="3">
+        <v>0</v>
       </c>
       <c r="L75" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="76" spans="1:12" x14ac:dyDescent="0.3">
@@ -3342,22 +3342,22 @@
         <v>11</v>
       </c>
       <c r="B76" s="4">
-        <v>21.515005251863489</v>
+        <v>263.47224594943373</v>
       </c>
       <c r="C76" s="4">
-        <v>7.255831550735242</v>
+        <v>66.126575992991903</v>
       </c>
       <c r="D76" s="4">
-        <v>13.09636680575912</v>
+        <v>12.09052608827845</v>
       </c>
       <c r="E76" s="4">
-        <v>5.4698429005733598</v>
+        <v>7.5403611736105471</v>
       </c>
       <c r="F76" s="4">
-        <v>3.3145115030643781</v>
+        <v>6.699831591203889</v>
       </c>
       <c r="G76">
-        <v>50.651558011995597</v>
+        <v>355.92954079551839</v>
       </c>
       <c r="H76">
         <v>0.25</v>
@@ -3366,13 +3366,13 @@
         <v>0</v>
       </c>
       <c r="J76">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="K76" s="4">
         <v>1</v>
       </c>
       <c r="L76" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="77" spans="1:12" x14ac:dyDescent="0.3">
@@ -3380,22 +3380,22 @@
         <v>11</v>
       </c>
       <c r="B77" s="4">
-        <v>34.56137759320103</v>
+        <v>170.75584393662831</v>
       </c>
       <c r="C77" s="4">
-        <v>14.01878518859516</v>
+        <v>41.753322310532603</v>
       </c>
       <c r="D77" s="4">
-        <v>11.644639249305801</v>
+        <v>13.14503700065792</v>
       </c>
       <c r="E77" s="4">
-        <v>4.0798304903645999</v>
+        <v>8.514207744870177</v>
       </c>
       <c r="F77" s="4">
-        <v>3.5966438863464072</v>
+        <v>6.7195161810617359</v>
       </c>
       <c r="G77">
-        <v>67.901276407812986</v>
+        <v>240.8879271737508</v>
       </c>
       <c r="H77">
         <v>0.25</v>
@@ -3404,7 +3404,7 @@
         <v>0</v>
       </c>
       <c r="J77">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="K77" s="4">
         <v>1</v>
@@ -3418,22 +3418,22 @@
         <v>11</v>
       </c>
       <c r="B78" s="4">
-        <v>9.9165021593867522</v>
+        <v>980.08675621659017</v>
       </c>
       <c r="C78" s="4">
-        <v>4.6289087079053717</v>
+        <v>162.05292388492211</v>
       </c>
       <c r="D78" s="4">
-        <v>14.14269798180972</v>
+        <v>12.491391502070631</v>
       </c>
       <c r="E78" s="4">
-        <v>8.5012331309169191</v>
+        <v>6.4369319879049307</v>
       </c>
       <c r="F78" s="4">
-        <v>3.6354393844863351</v>
+        <v>6.839177162087684</v>
       </c>
       <c r="G78">
-        <v>40.824781364505093</v>
+        <v>1167.9071807535761</v>
       </c>
       <c r="H78">
         <v>0.25</v>
@@ -3442,36 +3442,36 @@
         <v>0</v>
       </c>
       <c r="J78">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="K78" s="4">
         <v>1</v>
       </c>
       <c r="L78" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="79" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
         <v>11</v>
       </c>
-      <c r="B79" s="4">
-        <v>256.48442721149371</v>
-      </c>
-      <c r="C79" s="4">
-        <v>55.153414799175067</v>
-      </c>
-      <c r="D79" s="4">
-        <v>15.17508137375766</v>
-      </c>
-      <c r="E79" s="4">
-        <v>6.9085209529379066</v>
-      </c>
-      <c r="F79" s="4">
-        <v>3.9641233324522349</v>
+      <c r="B79" s="3">
+        <v>1991.2868223592841</v>
+      </c>
+      <c r="C79" s="3">
+        <v>125.4283495015565</v>
+      </c>
+      <c r="D79" s="3">
+        <v>11.714530661927389</v>
+      </c>
+      <c r="E79" s="3">
+        <v>5.5043231196026996</v>
+      </c>
+      <c r="F79" s="3">
+        <v>6.8663668268650024</v>
       </c>
       <c r="G79">
-        <v>337.68556766981658</v>
+        <v>2140.8003924692362</v>
       </c>
       <c r="H79">
         <v>0.25</v>
@@ -3480,36 +3480,36 @@
         <v>0</v>
       </c>
       <c r="J79">
-        <v>27</v>
-      </c>
-      <c r="K79" s="4">
-        <v>1</v>
+        <v>13</v>
+      </c>
+      <c r="K79" s="3">
+        <v>0</v>
       </c>
       <c r="L79" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="80" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
         <v>11</v>
       </c>
-      <c r="B80" s="4">
-        <v>203.09248334509439</v>
-      </c>
-      <c r="C80" s="4">
-        <v>8.1168008753453282</v>
-      </c>
-      <c r="D80" s="4">
-        <v>35.659761598708101</v>
-      </c>
-      <c r="E80" s="4">
-        <v>9.4976545834315225</v>
-      </c>
-      <c r="F80" s="4">
-        <v>5.4312165075770169</v>
+      <c r="B80" s="3">
+        <v>490.0828812698752</v>
+      </c>
+      <c r="C80" s="3">
+        <v>66.539820807168496</v>
+      </c>
+      <c r="D80" s="3">
+        <v>9.4504871147802323</v>
+      </c>
+      <c r="E80" s="3">
+        <v>3.2290726067730882</v>
+      </c>
+      <c r="F80" s="3">
+        <v>7.1005304392622879</v>
       </c>
       <c r="G80">
-        <v>261.79791691015652</v>
+        <v>576.40279223785933</v>
       </c>
       <c r="H80">
         <v>0.25</v>
@@ -3518,13 +3518,13 @@
         <v>0</v>
       </c>
       <c r="J80">
-        <v>25</v>
-      </c>
-      <c r="K80" s="4">
-        <v>1</v>
+        <v>22</v>
+      </c>
+      <c r="K80" s="3">
+        <v>0</v>
       </c>
       <c r="L80" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="81" spans="1:12" x14ac:dyDescent="0.3">
@@ -3532,22 +3532,22 @@
         <v>11</v>
       </c>
       <c r="B81" s="4">
-        <v>14.20465761840973</v>
+        <v>769.26625316086188</v>
       </c>
       <c r="C81" s="4">
-        <v>5.7923228198002308</v>
+        <v>227.04228624472671</v>
       </c>
       <c r="D81" s="4">
-        <v>5.2933295307290367</v>
+        <v>31.73942841574128</v>
       </c>
       <c r="E81" s="4">
-        <v>6.1771993424124609</v>
+        <v>12.96630454517453</v>
       </c>
       <c r="F81" s="4">
-        <v>5.6405008941544104</v>
+        <v>7.2919413827102382</v>
       </c>
       <c r="G81">
-        <v>37.108010205505863</v>
+        <v>1048.3062137492141</v>
       </c>
       <c r="H81">
         <v>0.25</v>
@@ -3556,13 +3556,13 @@
         <v>0</v>
       </c>
       <c r="J81">
-        <v>2</v>
+        <v>19</v>
       </c>
       <c r="K81" s="4">
         <v>1</v>
       </c>
       <c r="L81" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="82" spans="1:12" x14ac:dyDescent="0.3">
@@ -3570,22 +3570,22 @@
         <v>11</v>
       </c>
       <c r="B82" s="4">
-        <v>26.47596470587154</v>
+        <v>283.58099359256221</v>
       </c>
       <c r="C82" s="4">
-        <v>10.183412495948559</v>
+        <v>71.999195808833463</v>
       </c>
       <c r="D82" s="4">
-        <v>10.28804614271175</v>
+        <v>10.874792599555381</v>
       </c>
       <c r="E82" s="4">
-        <v>10.739355124671199</v>
+        <v>8.3380218568355282</v>
       </c>
       <c r="F82" s="4">
-        <v>5.7242221689278354</v>
+        <v>7.4785522901231367</v>
       </c>
       <c r="G82">
-        <v>63.411000638130893</v>
+        <v>382.27155614790968</v>
       </c>
       <c r="H82">
         <v>0.25</v>
@@ -3600,30 +3600,30 @@
         <v>1</v>
       </c>
       <c r="L82" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="83" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
         <v>11</v>
       </c>
-      <c r="B83" s="4">
-        <v>18.13336235145713</v>
-      </c>
-      <c r="C83" s="4">
-        <v>44.099137000495901</v>
-      </c>
-      <c r="D83" s="4">
-        <v>25.03176878474838</v>
-      </c>
-      <c r="E83" s="4">
-        <v>12.36614291838846</v>
-      </c>
-      <c r="F83" s="4">
-        <v>5.9706869927712614</v>
+      <c r="B83" s="3">
+        <v>100.98857822939151</v>
+      </c>
+      <c r="C83" s="3">
+        <v>42.726435901294337</v>
+      </c>
+      <c r="D83" s="3">
+        <v>11.684902581728011</v>
+      </c>
+      <c r="E83" s="3">
+        <v>6.6448076252011177</v>
+      </c>
+      <c r="F83" s="3">
+        <v>7.5569755731062456</v>
       </c>
       <c r="G83">
-        <v>105.6010980478611</v>
+        <v>169.60169991072121</v>
       </c>
       <c r="H83">
         <v>0.25</v>
@@ -3632,13 +3632,13 @@
         <v>0</v>
       </c>
       <c r="J83">
-        <v>10</v>
-      </c>
-      <c r="K83" s="4">
-        <v>1</v>
+        <v>13</v>
+      </c>
+      <c r="K83" s="3">
+        <v>0</v>
       </c>
       <c r="L83" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="84" spans="1:12" x14ac:dyDescent="0.3">
@@ -3646,22 +3646,22 @@
         <v>11</v>
       </c>
       <c r="B84" s="4">
-        <v>21.285463917083849</v>
+        <v>648.84628904053056</v>
       </c>
       <c r="C84" s="4">
-        <v>23.66681727617911</v>
+        <v>147.46957219958071</v>
       </c>
       <c r="D84" s="4">
-        <v>80.367539570473809</v>
+        <v>23.463071855382221</v>
       </c>
       <c r="E84" s="4">
-        <v>9.7973824334841915</v>
+        <v>8.5381940776354419</v>
       </c>
       <c r="F84" s="4">
-        <v>6.3957885094037099</v>
+        <v>7.6358130693399824</v>
       </c>
       <c r="G84">
-        <v>141.51299170662469</v>
+        <v>835.9529402424688</v>
       </c>
       <c r="H84">
         <v>0.25</v>
@@ -3670,13 +3670,13 @@
         <v>0</v>
       </c>
       <c r="J84">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="K84" s="4">
         <v>1</v>
       </c>
       <c r="L84" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="85" spans="1:12" x14ac:dyDescent="0.3">
@@ -3684,22 +3684,22 @@
         <v>11</v>
       </c>
       <c r="B85" s="4">
-        <v>24.48681635399835</v>
+        <v>1358.944705653739</v>
       </c>
       <c r="C85" s="4">
-        <v>8.9827723777027071</v>
+        <v>521.21822494707658</v>
       </c>
       <c r="D85" s="4">
-        <v>16.318410233041611</v>
+        <v>90.677510460684886</v>
       </c>
       <c r="E85" s="4">
-        <v>6.505931984973504</v>
+        <v>14.07381990315236</v>
       </c>
       <c r="F85" s="4">
-        <v>6.4772360538844662</v>
+        <v>7.7894413246896104</v>
       </c>
       <c r="G85">
-        <v>62.771167003600631</v>
+        <v>1992.7037022893419</v>
       </c>
       <c r="H85">
         <v>0.25</v>
@@ -3708,36 +3708,36 @@
         <v>0</v>
       </c>
       <c r="J85">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="K85" s="4">
         <v>1</v>
       </c>
       <c r="L85" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="86" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
         <v>11</v>
       </c>
-      <c r="B86" s="4">
-        <v>170.75584393662831</v>
-      </c>
-      <c r="C86" s="4">
-        <v>41.753322310532603</v>
-      </c>
-      <c r="D86" s="4">
-        <v>13.14503700065792</v>
-      </c>
-      <c r="E86" s="4">
-        <v>8.514207744870177</v>
-      </c>
-      <c r="F86" s="4">
-        <v>6.7195161810617359</v>
+      <c r="B86" s="3">
+        <v>217.83327354159121</v>
+      </c>
+      <c r="C86" s="3">
+        <v>14.19289626770852</v>
+      </c>
+      <c r="D86" s="3">
+        <v>11.67421737145585</v>
+      </c>
+      <c r="E86" s="3">
+        <v>8.7664231802713886</v>
+      </c>
+      <c r="F86" s="3">
+        <v>8.062339008791982</v>
       </c>
       <c r="G86">
-        <v>240.8879271737508</v>
+        <v>260.52914936981892</v>
       </c>
       <c r="H86">
         <v>0.25</v>
@@ -3746,10 +3746,10 @@
         <v>0</v>
       </c>
       <c r="J86">
-        <v>21</v>
-      </c>
-      <c r="K86" s="4">
-        <v>1</v>
+        <v>1</v>
+      </c>
+      <c r="K86" s="3">
+        <v>0</v>
       </c>
       <c r="L86" t="s">
         <v>12</v>
@@ -3797,23 +3797,23 @@
       <c r="A88" t="s">
         <v>11</v>
       </c>
-      <c r="B88" s="4">
-        <v>14.571938773745689</v>
-      </c>
-      <c r="C88" s="4">
-        <v>6.5415824303350378</v>
-      </c>
-      <c r="D88" s="4">
-        <v>6.4076405571070731</v>
-      </c>
-      <c r="E88" s="4">
-        <v>11.76884228849568</v>
-      </c>
-      <c r="F88" s="4">
-        <v>9.6937033275920115</v>
+      <c r="B88" s="3">
+        <v>213.3521899589015</v>
+      </c>
+      <c r="C88" s="3">
+        <v>104.4585355140411</v>
+      </c>
+      <c r="D88" s="3">
+        <v>11.11100221559164</v>
+      </c>
+      <c r="E88" s="3">
+        <v>6.4851855201035331</v>
+      </c>
+      <c r="F88" s="3">
+        <v>8.57784665118829</v>
       </c>
       <c r="G88">
-        <v>48.983707377275493</v>
+        <v>343.984759859826</v>
       </c>
       <c r="H88">
         <v>0.25</v>
@@ -3822,10 +3822,10 @@
         <v>0</v>
       </c>
       <c r="J88">
-        <v>28</v>
-      </c>
-      <c r="K88" s="4">
-        <v>1</v>
+        <v>9</v>
+      </c>
+      <c r="K88" s="3">
+        <v>0</v>
       </c>
       <c r="L88" t="s">
         <v>12</v>
@@ -3836,22 +3836,22 @@
         <v>11</v>
       </c>
       <c r="B89" s="4">
-        <v>1616.4890513739981</v>
+        <v>307.37392639550302</v>
       </c>
       <c r="C89" s="4">
-        <v>279.88874153999728</v>
+        <v>111.2406173072639</v>
       </c>
       <c r="D89" s="4">
-        <v>40.511646025193137</v>
+        <v>20.40430359717217</v>
       </c>
       <c r="E89" s="4">
-        <v>22.176920626986689</v>
+        <v>9.5638462905778852</v>
       </c>
       <c r="F89" s="4">
-        <v>13.09017264783922</v>
+        <v>9.1171870204414027</v>
       </c>
       <c r="G89">
-        <v>1972.1565322140141</v>
+        <v>457.69988061095842</v>
       </c>
       <c r="H89">
         <v>0.25</v>
@@ -3860,36 +3860,36 @@
         <v>0</v>
       </c>
       <c r="J89">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="K89" s="4">
         <v>1</v>
       </c>
       <c r="L89" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="90" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
         <v>11</v>
       </c>
-      <c r="B90" s="4">
-        <v>403.00527276670778</v>
-      </c>
-      <c r="C90" s="4">
-        <v>83.743976283157323</v>
-      </c>
-      <c r="D90" s="4">
-        <v>34.245993720712917</v>
-      </c>
-      <c r="E90" s="4">
-        <v>15.90870511521865</v>
-      </c>
-      <c r="F90" s="4">
-        <v>14.45479603404244</v>
+      <c r="B90" s="3">
+        <v>694.55710322070399</v>
+      </c>
+      <c r="C90" s="3">
+        <v>336.46264129678968</v>
+      </c>
+      <c r="D90" s="3">
+        <v>23.103884597924779</v>
+      </c>
+      <c r="E90" s="3">
+        <v>13.19675940021115</v>
+      </c>
+      <c r="F90" s="3">
+        <v>9.6404843816495021</v>
       </c>
       <c r="G90">
-        <v>551.35874391983907</v>
+        <v>1076.9608728972789</v>
       </c>
       <c r="H90">
         <v>0.25</v>
@@ -3898,13 +3898,13 @@
         <v>0</v>
       </c>
       <c r="J90">
-        <v>20</v>
-      </c>
-      <c r="K90" s="4">
-        <v>1</v>
+        <v>10</v>
+      </c>
+      <c r="K90" s="3">
+        <v>0</v>
       </c>
       <c r="L90" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="91" spans="1:12" x14ac:dyDescent="0.3">
@@ -3912,22 +3912,22 @@
         <v>11</v>
       </c>
       <c r="B91" s="4">
-        <v>13.51848425915369</v>
+        <v>14.571938773745689</v>
       </c>
       <c r="C91" s="4">
-        <v>19.164797809624101</v>
+        <v>6.5415824303350378</v>
       </c>
       <c r="D91" s="4">
-        <v>11.36178992293175</v>
+        <v>6.4076405571070731</v>
       </c>
       <c r="E91" s="4">
-        <v>25.958915854912799</v>
+        <v>11.76884228849568</v>
       </c>
       <c r="F91" s="4">
-        <v>44.765129882228649</v>
+        <v>9.6937033275920115</v>
       </c>
       <c r="G91">
-        <v>114.769117728851</v>
+        <v>48.983707377275493</v>
       </c>
       <c r="H91">
         <v>0.25</v>
@@ -3936,7 +3936,7 @@
         <v>0</v>
       </c>
       <c r="J91">
-        <v>6</v>
+        <v>28</v>
       </c>
       <c r="K91" s="4">
         <v>1</v>
@@ -3950,22 +3950,22 @@
         <v>11</v>
       </c>
       <c r="B92" s="4">
-        <v>22868.41316698055</v>
+        <v>347.12751983308368</v>
       </c>
       <c r="C92" s="4">
-        <v>7324.3642620668734</v>
+        <v>57.710622150494594</v>
       </c>
       <c r="D92" s="4">
-        <v>6239.179491481591</v>
+        <v>7.0133550326105807</v>
       </c>
       <c r="E92" s="4">
-        <v>3627.9920540129629</v>
+        <v>9.2508870177532003</v>
       </c>
       <c r="F92" s="4">
-        <v>4616.6853240045621</v>
+        <v>9.7549097373122091</v>
       </c>
       <c r="G92">
-        <v>44676.634298546531</v>
+        <v>430.85729377125438</v>
       </c>
       <c r="H92">
         <v>0.25</v>
@@ -3974,36 +3974,36 @@
         <v>0</v>
       </c>
       <c r="J92">
-        <v>23</v>
+        <v>2</v>
       </c>
       <c r="K92" s="4">
         <v>1</v>
       </c>
       <c r="L92" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="93" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
         <v>11</v>
       </c>
-      <c r="B93" s="4">
-        <v>10.39666557926698</v>
-      </c>
-      <c r="C93" s="4">
-        <v>6.7017996661046224</v>
-      </c>
-      <c r="D93" s="4">
-        <v>4.0127140697908779</v>
-      </c>
-      <c r="E93" s="4">
-        <v>2.4907327395518339</v>
-      </c>
-      <c r="F93" s="4">
-        <v>2.0445248545257271</v>
+      <c r="B93" s="3">
+        <v>1101.030498046965</v>
+      </c>
+      <c r="C93" s="3">
+        <v>204.24573752143419</v>
+      </c>
+      <c r="D93" s="3">
+        <v>34.175963651973603</v>
+      </c>
+      <c r="E93" s="3">
+        <v>10.24387876814686</v>
+      </c>
+      <c r="F93" s="3">
+        <v>9.8375736197958883</v>
       </c>
       <c r="G93">
-        <v>25.646436909240041</v>
+        <v>1359.5336516083159</v>
       </c>
       <c r="H93">
         <v>0.25</v>
@@ -4012,13 +4012,13 @@
         <v>0</v>
       </c>
       <c r="J93">
-        <v>11</v>
-      </c>
-      <c r="K93" s="4">
-        <v>1</v>
+        <v>19</v>
+      </c>
+      <c r="K93" s="3">
+        <v>0</v>
       </c>
       <c r="L93" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="94" spans="1:12" x14ac:dyDescent="0.3">
@@ -4026,22 +4026,22 @@
         <v>11</v>
       </c>
       <c r="B94" s="4">
-        <v>96.201206393947245</v>
+        <v>1186.0400168291819</v>
       </c>
       <c r="C94" s="4">
-        <v>8.6644164211623735</v>
+        <v>192.6339732285409</v>
       </c>
       <c r="D94" s="4">
-        <v>2.9718457924176338</v>
+        <v>26.44705508330032</v>
       </c>
       <c r="E94" s="4">
-        <v>2.740653023953985</v>
+        <v>11.35558753930564</v>
       </c>
       <c r="F94" s="4">
-        <v>3.7294992274479992</v>
+        <v>10.01523611406618</v>
       </c>
       <c r="G94">
-        <v>114.3076208589293</v>
+        <v>1426.491868794395</v>
       </c>
       <c r="H94">
         <v>0.25</v>
@@ -4050,13 +4050,13 @@
         <v>0</v>
       </c>
       <c r="J94">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="K94" s="4">
         <v>1</v>
       </c>
       <c r="L94" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="95" spans="1:12" x14ac:dyDescent="0.3">
@@ -4064,22 +4064,22 @@
         <v>11</v>
       </c>
       <c r="B95" s="4">
-        <v>78.180206018330324</v>
+        <v>358.08096477526919</v>
       </c>
       <c r="C95" s="4">
-        <v>20.294454328463281</v>
+        <v>55.103236798998793</v>
       </c>
       <c r="D95" s="4">
-        <v>6.0671719884741373</v>
+        <v>9.9880770201838054</v>
       </c>
       <c r="E95" s="4">
-        <v>6.6341383683822102</v>
+        <v>8.5023303315692935</v>
       </c>
       <c r="F95" s="4">
-        <v>12.355932668542531</v>
+        <v>10.363256196406811</v>
       </c>
       <c r="G95">
-        <v>123.5319033721925</v>
+        <v>442.03786512242777</v>
       </c>
       <c r="H95">
         <v>0.25</v>
@@ -4088,13 +4088,13 @@
         <v>0</v>
       </c>
       <c r="J95">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="K95" s="4">
         <v>1</v>
       </c>
       <c r="L95" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="96" spans="1:12" x14ac:dyDescent="0.3">
@@ -4102,22 +4102,22 @@
         <v>11</v>
       </c>
       <c r="B96" s="4">
-        <v>165.52979098557941</v>
+        <v>425.7391706501096</v>
       </c>
       <c r="C96" s="4">
-        <v>21.947301637309291</v>
+        <v>35.932161464941927</v>
       </c>
       <c r="D96" s="4">
-        <v>10.723498826359201</v>
+        <v>13.95001134411403</v>
       </c>
       <c r="E96" s="4">
-        <v>19.412854798535349</v>
+        <v>11.252690080831</v>
       </c>
       <c r="F96" s="4">
-        <v>27.930671553328999</v>
+        <v>10.951250973740651</v>
       </c>
       <c r="G96">
-        <v>245.54411780111209</v>
+        <v>497.82528451373719</v>
       </c>
       <c r="H96">
         <v>0.25</v>
@@ -4126,7 +4126,7 @@
         <v>0</v>
       </c>
       <c r="J96">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="K96" s="4">
         <v>1</v>
@@ -4139,23 +4139,23 @@
       <c r="A97" t="s">
         <v>11</v>
       </c>
-      <c r="B97" s="4">
-        <v>130.3631289273103</v>
-      </c>
-      <c r="C97" s="4">
-        <v>22.407656576191179</v>
-      </c>
-      <c r="D97" s="4">
-        <v>13.21652168744609</v>
-      </c>
-      <c r="E97" s="4">
-        <v>7.2476802343722646</v>
-      </c>
-      <c r="F97" s="4">
-        <v>5.7663057632039756</v>
+      <c r="B97" s="3">
+        <v>1251.0556311846101</v>
+      </c>
+      <c r="C97" s="3">
+        <v>163.32991997190649</v>
+      </c>
+      <c r="D97" s="3">
+        <v>26.816064444142022</v>
+      </c>
+      <c r="E97" s="3">
+        <v>10.81529716173609</v>
+      </c>
+      <c r="F97" s="3">
+        <v>11.2028462883082</v>
       </c>
       <c r="G97">
-        <v>179.00129318852379</v>
+        <v>1463.219759050703</v>
       </c>
       <c r="H97">
         <v>0.25</v>
@@ -4164,10 +4164,10 @@
         <v>0</v>
       </c>
       <c r="J97">
-        <v>25</v>
-      </c>
-      <c r="K97" s="4">
-        <v>1</v>
+        <v>21</v>
+      </c>
+      <c r="K97" s="3">
+        <v>0</v>
       </c>
       <c r="L97" t="s">
         <v>13</v>
@@ -4178,22 +4178,22 @@
         <v>11</v>
       </c>
       <c r="B98" s="4">
-        <v>425.7391706501096</v>
+        <v>840.60475985921403</v>
       </c>
       <c r="C98" s="4">
-        <v>35.932161464941927</v>
+        <v>165.4500487222692</v>
       </c>
       <c r="D98" s="4">
-        <v>13.95001134411403</v>
+        <v>25.267166216229619</v>
       </c>
       <c r="E98" s="4">
-        <v>11.252690080831</v>
+        <v>10.424071711981981</v>
       </c>
       <c r="F98" s="4">
-        <v>10.951250973740651</v>
+        <v>11.527029659087621</v>
       </c>
       <c r="G98">
-        <v>497.82528451373719</v>
+        <v>1053.2730761687819</v>
       </c>
       <c r="H98">
         <v>0.25</v>
@@ -4202,7 +4202,7 @@
         <v>0</v>
       </c>
       <c r="J98">
-        <v>26</v>
+        <v>3</v>
       </c>
       <c r="K98" s="4">
         <v>1</v>
@@ -4216,22 +4216,22 @@
         <v>11</v>
       </c>
       <c r="B99" s="4">
-        <v>65.665621040072523</v>
+        <v>78.180206018330324</v>
       </c>
       <c r="C99" s="4">
-        <v>39.561795800111867</v>
+        <v>20.294454328463281</v>
       </c>
       <c r="D99" s="4">
-        <v>28.925387931980119</v>
+        <v>6.0671719884741373</v>
       </c>
       <c r="E99" s="4">
-        <v>22.794350785985792</v>
+        <v>6.6341383683822102</v>
       </c>
       <c r="F99" s="4">
-        <v>13.5413176442494</v>
+        <v>12.355932668542531</v>
       </c>
       <c r="G99">
-        <v>170.48847320239969</v>
+        <v>123.5319033721925</v>
       </c>
       <c r="H99">
         <v>0.25</v>
@@ -4240,7 +4240,7 @@
         <v>0</v>
       </c>
       <c r="J99">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="K99" s="4">
         <v>1</v>
@@ -4254,22 +4254,22 @@
         <v>11</v>
       </c>
       <c r="B100" s="4">
-        <v>428.66892781069942</v>
+        <v>1616.4890513739981</v>
       </c>
       <c r="C100" s="4">
-        <v>41.06738527482765</v>
+        <v>279.88874153999728</v>
       </c>
       <c r="D100" s="4">
-        <v>11.465850334616521</v>
+        <v>40.511646025193137</v>
       </c>
       <c r="E100" s="4">
-        <v>16.839794089939868</v>
+        <v>22.176920626986689</v>
       </c>
       <c r="F100" s="4">
-        <v>21.48758356183324</v>
+        <v>13.09017264783922</v>
       </c>
       <c r="G100">
-        <v>519.52954107191658</v>
+        <v>1972.1565322140141</v>
       </c>
       <c r="H100">
         <v>0.25</v>
@@ -4284,7 +4284,7 @@
         <v>1</v>
       </c>
       <c r="L100" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="101" spans="1:12" x14ac:dyDescent="0.3">
@@ -4292,22 +4292,22 @@
         <v>11</v>
       </c>
       <c r="B101" s="4">
-        <v>188.2802864421769</v>
+        <v>2494.9698839670632</v>
       </c>
       <c r="C101" s="4">
-        <v>57.49496453658287</v>
+        <v>506.41964174434321</v>
       </c>
       <c r="D101" s="4">
-        <v>17.122230807537591</v>
+        <v>91.08541226935985</v>
       </c>
       <c r="E101" s="4">
-        <v>16.495251138977579</v>
+        <v>29.0638568347585</v>
       </c>
       <c r="F101" s="4">
-        <v>37.631867437201443</v>
+        <v>13.195763942850579</v>
       </c>
       <c r="G101">
-        <v>317.02460036247652</v>
+        <v>3134.734558758375</v>
       </c>
       <c r="H101">
         <v>0.25</v>
@@ -4316,36 +4316,36 @@
         <v>0</v>
       </c>
       <c r="J101">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="K101" s="4">
         <v>1</v>
       </c>
       <c r="L101" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="102" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
         <v>11</v>
       </c>
-      <c r="B102" s="4">
-        <v>347.12751983308368</v>
-      </c>
-      <c r="C102" s="4">
-        <v>57.710622150494594</v>
-      </c>
-      <c r="D102" s="4">
-        <v>7.0133550326105807</v>
-      </c>
-      <c r="E102" s="4">
-        <v>9.2508870177532003</v>
-      </c>
-      <c r="F102" s="4">
-        <v>9.7549097373122091</v>
+      <c r="B102" s="3">
+        <v>17.53408841840232</v>
+      </c>
+      <c r="C102" s="3">
+        <v>40.611154434982041</v>
+      </c>
+      <c r="D102" s="3">
+        <v>22.665615505520961</v>
+      </c>
+      <c r="E102" s="3">
+        <v>9.5496540522597773</v>
+      </c>
+      <c r="F102" s="3">
+        <v>13.204969666219821</v>
       </c>
       <c r="G102">
-        <v>430.85729377125438</v>
+        <v>103.5654820773849</v>
       </c>
       <c r="H102">
         <v>0.25</v>
@@ -4354,13 +4354,13 @@
         <v>0</v>
       </c>
       <c r="J102">
-        <v>2</v>
-      </c>
-      <c r="K102" s="4">
-        <v>1</v>
+        <v>6</v>
+      </c>
+      <c r="K102" s="3">
+        <v>0</v>
       </c>
       <c r="L102" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="103" spans="1:12" x14ac:dyDescent="0.3">
@@ -4368,22 +4368,22 @@
         <v>11</v>
       </c>
       <c r="B103" s="4">
-        <v>207.31479769501311</v>
+        <v>65.665621040072523</v>
       </c>
       <c r="C103" s="4">
-        <v>62.124625955996763</v>
+        <v>39.561795800111867</v>
       </c>
       <c r="D103" s="4">
-        <v>12.256026013705959</v>
+        <v>28.925387931980119</v>
       </c>
       <c r="E103" s="4">
-        <v>11.605102957023719</v>
+        <v>22.794350785985792</v>
       </c>
       <c r="F103" s="4">
-        <v>28.08787005652221</v>
+        <v>13.5413176442494</v>
       </c>
       <c r="G103">
-        <v>321.38842267826169</v>
+        <v>170.48847320239969</v>
       </c>
       <c r="H103">
         <v>0.25</v>
@@ -4392,7 +4392,7 @@
         <v>0</v>
       </c>
       <c r="J103">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="K103" s="4">
         <v>1</v>
@@ -4405,23 +4405,23 @@
       <c r="A104" t="s">
         <v>11</v>
       </c>
-      <c r="B104" s="4">
-        <v>445.99477078396268</v>
-      </c>
-      <c r="C104" s="4">
-        <v>73.277134383399684</v>
-      </c>
-      <c r="D104" s="4">
-        <v>10.740824417611069</v>
-      </c>
-      <c r="E104" s="4">
-        <v>21.038774136160971</v>
-      </c>
-      <c r="F104" s="4">
-        <v>34.161356129859222</v>
+      <c r="B104" s="3">
+        <v>18.38945522608844</v>
+      </c>
+      <c r="C104" s="3">
+        <v>46.024821552352833</v>
+      </c>
+      <c r="D104" s="3">
+        <v>22.61379643229672</v>
+      </c>
+      <c r="E104" s="3">
+        <v>9.2596153075893675</v>
+      </c>
+      <c r="F104" s="3">
+        <v>14.105369130528571</v>
       </c>
       <c r="G104">
-        <v>585.21285985099348</v>
+        <v>110.3930576488559</v>
       </c>
       <c r="H104">
         <v>0.25</v>
@@ -4430,13 +4430,13 @@
         <v>0</v>
       </c>
       <c r="J104">
-        <v>24</v>
-      </c>
-      <c r="K104" s="4">
-        <v>1</v>
+        <v>19</v>
+      </c>
+      <c r="K104" s="3">
+        <v>0</v>
       </c>
       <c r="L104" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="105" spans="1:12" x14ac:dyDescent="0.3">
@@ -4444,22 +4444,22 @@
         <v>11</v>
       </c>
       <c r="B105" s="4">
-        <v>468.53405061184441</v>
+        <v>931.57358241610086</v>
       </c>
       <c r="C105" s="4">
-        <v>79.31158222186437</v>
+        <v>202.55934755507519</v>
       </c>
       <c r="D105" s="4">
-        <v>8.4759602167535224</v>
+        <v>22.24160467640516</v>
       </c>
       <c r="E105" s="4">
-        <v>3.1262414077283069</v>
+        <v>13.231824854888529</v>
       </c>
       <c r="F105" s="4">
-        <v>3.68605786079228</v>
+        <v>14.23121048735991</v>
       </c>
       <c r="G105">
-        <v>563.13389231898293</v>
+        <v>1183.8375699898299</v>
       </c>
       <c r="H105">
         <v>0.25</v>
@@ -4468,7 +4468,7 @@
         <v>0</v>
       </c>
       <c r="J105">
-        <v>27</v>
+        <v>4</v>
       </c>
       <c r="K105" s="4">
         <v>1</v>
@@ -4482,22 +4482,22 @@
         <v>11</v>
       </c>
       <c r="B106" s="4">
-        <v>307.37392639550302</v>
+        <v>403.00527276670778</v>
       </c>
       <c r="C106" s="4">
-        <v>111.2406173072639</v>
+        <v>83.743976283157323</v>
       </c>
       <c r="D106" s="4">
-        <v>20.40430359717217</v>
+        <v>34.245993720712917</v>
       </c>
       <c r="E106" s="4">
-        <v>9.5638462905778852</v>
+        <v>15.90870511521865</v>
       </c>
       <c r="F106" s="4">
-        <v>9.1171870204414027</v>
+        <v>14.45479603404244</v>
       </c>
       <c r="G106">
-        <v>457.69988061095842</v>
+        <v>551.35874391983907</v>
       </c>
       <c r="H106">
         <v>0.25</v>
@@ -4506,36 +4506,36 @@
         <v>0</v>
       </c>
       <c r="J106">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="K106" s="4">
         <v>1</v>
       </c>
       <c r="L106" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="107" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
         <v>11</v>
       </c>
-      <c r="B107" s="4">
-        <v>697.64777960456342</v>
-      </c>
-      <c r="C107" s="4">
-        <v>115.4605784537588</v>
-      </c>
-      <c r="D107" s="4">
-        <v>23.614883936408589</v>
-      </c>
-      <c r="E107" s="4">
-        <v>20.922300524223409</v>
-      </c>
-      <c r="F107" s="4">
-        <v>23.358487322973001</v>
+      <c r="B107" s="3">
+        <v>446.37533521668507</v>
+      </c>
+      <c r="C107" s="3">
+        <v>81.591940506042533</v>
+      </c>
+      <c r="D107" s="3">
+        <v>23.95953355837818</v>
+      </c>
+      <c r="E107" s="3">
+        <v>10.41518077389471</v>
+      </c>
+      <c r="F107" s="3">
+        <v>14.908948125756259</v>
       </c>
       <c r="G107">
-        <v>881.00402984192726</v>
+        <v>577.25093818075675</v>
       </c>
       <c r="H107">
         <v>0.25</v>
@@ -4544,13 +4544,13 @@
         <v>0</v>
       </c>
       <c r="J107">
-        <v>12</v>
-      </c>
-      <c r="K107" s="4">
-        <v>1</v>
+        <v>18</v>
+      </c>
+      <c r="K107" s="3">
+        <v>0</v>
       </c>
       <c r="L107" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="108" spans="1:12" x14ac:dyDescent="0.3">
@@ -4558,22 +4558,22 @@
         <v>11</v>
       </c>
       <c r="B108" s="4">
-        <v>472.8353525069557</v>
+        <v>1732.606955237163</v>
       </c>
       <c r="C108" s="4">
-        <v>123.74809782664239</v>
+        <v>299.40953353216059</v>
       </c>
       <c r="D108" s="4">
-        <v>15.448776066429691</v>
+        <v>25.28288387407607</v>
       </c>
       <c r="E108" s="4">
-        <v>14.01525359263329</v>
+        <v>13.337779351692619</v>
       </c>
       <c r="F108" s="4">
-        <v>23.74488439995082</v>
+        <v>15.794056328225899</v>
       </c>
       <c r="G108">
-        <v>649.79236439261183</v>
+        <v>2086.431208323319</v>
       </c>
       <c r="H108">
         <v>0.25</v>
@@ -4582,36 +4582,36 @@
         <v>0</v>
       </c>
       <c r="J108">
-        <v>10</v>
+        <v>23</v>
       </c>
       <c r="K108" s="4">
         <v>1</v>
       </c>
       <c r="L108" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="109" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
         <v>11</v>
       </c>
-      <c r="B109" s="4">
-        <v>722.824261047969</v>
-      </c>
-      <c r="C109" s="4">
-        <v>131.80198749250471</v>
-      </c>
-      <c r="D109" s="4">
-        <v>17.353087200068991</v>
-      </c>
-      <c r="E109" s="4">
-        <v>6.6103537891990607</v>
-      </c>
-      <c r="F109" s="4">
-        <v>6.4118095514198581</v>
+      <c r="B109" s="3">
+        <v>292.86959949732761</v>
+      </c>
+      <c r="C109" s="3">
+        <v>16.665080907823711</v>
+      </c>
+      <c r="D109" s="3">
+        <v>7.9466489237644504</v>
+      </c>
+      <c r="E109" s="3">
+        <v>10.06563986348819</v>
+      </c>
+      <c r="F109" s="3">
+        <v>16.12888585471088</v>
       </c>
       <c r="G109">
-        <v>885.00149908116157</v>
+        <v>343.67585504711479</v>
       </c>
       <c r="H109">
         <v>0.25</v>
@@ -4620,10 +4620,10 @@
         <v>0</v>
       </c>
       <c r="J109">
-        <v>15</v>
-      </c>
-      <c r="K109" s="4">
-        <v>1</v>
+        <v>1</v>
+      </c>
+      <c r="K109" s="3">
+        <v>0</v>
       </c>
       <c r="L109" t="s">
         <v>13</v>
@@ -4634,22 +4634,22 @@
         <v>11</v>
       </c>
       <c r="B110" s="4">
-        <v>980.08675621659017</v>
+        <v>1229.658423220495</v>
       </c>
       <c r="C110" s="4">
-        <v>162.05292388492211</v>
+        <v>204.24901621747489</v>
       </c>
       <c r="D110" s="4">
-        <v>12.491391502070631</v>
+        <v>47.581221346136353</v>
       </c>
       <c r="E110" s="4">
-        <v>6.4369319879049307</v>
+        <v>18.629300227847029</v>
       </c>
       <c r="F110" s="4">
-        <v>6.839177162087684</v>
+        <v>16.189080901547499</v>
       </c>
       <c r="G110">
-        <v>1167.9071807535761</v>
+        <v>1516.3070419135011</v>
       </c>
       <c r="H110">
         <v>0.25</v>
@@ -4658,36 +4658,36 @@
         <v>0</v>
       </c>
       <c r="J110">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="K110" s="4">
         <v>1</v>
       </c>
       <c r="L110" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="111" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
         <v>11</v>
       </c>
-      <c r="B111" s="4">
-        <v>840.60475985921403</v>
-      </c>
-      <c r="C111" s="4">
-        <v>165.4500487222692</v>
-      </c>
-      <c r="D111" s="4">
-        <v>25.267166216229619</v>
-      </c>
-      <c r="E111" s="4">
-        <v>10.424071711981981</v>
-      </c>
-      <c r="F111" s="4">
-        <v>11.527029659087621</v>
+      <c r="B111" s="3">
+        <v>346.79162911138258</v>
+      </c>
+      <c r="C111" s="3">
+        <v>146.32164559845569</v>
+      </c>
+      <c r="D111" s="3">
+        <v>11.53785444674832</v>
+      </c>
+      <c r="E111" s="3">
+        <v>8.033143863679701</v>
+      </c>
+      <c r="F111" s="3">
+        <v>18.088746490331221</v>
       </c>
       <c r="G111">
-        <v>1053.2730761687819</v>
+        <v>530.77301951059769</v>
       </c>
       <c r="H111">
         <v>0.25</v>
@@ -4696,36 +4696,36 @@
         <v>0</v>
       </c>
       <c r="J111">
-        <v>3</v>
-      </c>
-      <c r="K111" s="4">
-        <v>1</v>
+        <v>11</v>
+      </c>
+      <c r="K111" s="3">
+        <v>0</v>
       </c>
       <c r="L111" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="112" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
         <v>11</v>
       </c>
-      <c r="B112" s="4">
-        <v>931.57358241610086</v>
-      </c>
-      <c r="C112" s="4">
-        <v>202.55934755507519</v>
-      </c>
-      <c r="D112" s="4">
-        <v>22.24160467640516</v>
-      </c>
-      <c r="E112" s="4">
-        <v>13.231824854888529</v>
-      </c>
-      <c r="F112" s="4">
-        <v>14.23121048735991</v>
+      <c r="B112" s="3">
+        <v>475.15878933113788</v>
+      </c>
+      <c r="C112" s="3">
+        <v>59.216559793134429</v>
+      </c>
+      <c r="D112" s="3">
+        <v>14.458391941170859</v>
+      </c>
+      <c r="E112" s="3">
+        <v>9.8928145964672858</v>
+      </c>
+      <c r="F112" s="3">
+        <v>18.26679653901833</v>
       </c>
       <c r="G112">
-        <v>1183.8375699898299</v>
+        <v>576.99335220092883</v>
       </c>
       <c r="H112">
         <v>0.25</v>
@@ -4734,10 +4734,10 @@
         <v>0</v>
       </c>
       <c r="J112">
-        <v>4</v>
-      </c>
-      <c r="K112" s="4">
-        <v>1</v>
+        <v>20</v>
+      </c>
+      <c r="K112" s="3">
+        <v>0</v>
       </c>
       <c r="L112" t="s">
         <v>13</v>
@@ -4747,23 +4747,23 @@
       <c r="A113" t="s">
         <v>11</v>
       </c>
-      <c r="B113" s="4">
-        <v>690.66476007978031</v>
-      </c>
-      <c r="C113" s="4">
-        <v>206.1117835125508</v>
-      </c>
-      <c r="D113" s="4">
-        <v>50.434767840343653</v>
-      </c>
-      <c r="E113" s="4">
-        <v>96.095476443281996</v>
-      </c>
-      <c r="F113" s="4">
-        <v>199.5857701349322</v>
+      <c r="B113" s="3">
+        <v>38.341130185927611</v>
+      </c>
+      <c r="C113" s="3">
+        <v>5.0322878575617773</v>
+      </c>
+      <c r="D113" s="3">
+        <v>3.3169345572737949</v>
+      </c>
+      <c r="E113" s="3">
+        <v>8.0043667425245282</v>
+      </c>
+      <c r="F113" s="3">
+        <v>19.327224413606832</v>
       </c>
       <c r="G113">
-        <v>1242.8925580108889</v>
+        <v>74.021943756894544</v>
       </c>
       <c r="H113">
         <v>0.25</v>
@@ -4772,10 +4772,10 @@
         <v>0</v>
       </c>
       <c r="J113">
-        <v>6</v>
-      </c>
-      <c r="K113" s="4">
-        <v>1</v>
+        <v>3</v>
+      </c>
+      <c r="K113" s="3">
+        <v>0</v>
       </c>
       <c r="L113" t="s">
         <v>13</v>
@@ -4786,22 +4786,22 @@
         <v>11</v>
       </c>
       <c r="B114" s="4">
-        <v>769.26625316086188</v>
+        <v>980.91119389596099</v>
       </c>
       <c r="C114" s="4">
-        <v>227.04228624472671</v>
+        <v>204.02311835377401</v>
       </c>
       <c r="D114" s="4">
-        <v>31.73942841574128</v>
+        <v>22.763902770272161</v>
       </c>
       <c r="E114" s="4">
-        <v>12.96630454517453</v>
+        <v>14.951378936860261</v>
       </c>
       <c r="F114" s="4">
-        <v>7.2919413827102382</v>
+        <v>20.116120817253769</v>
       </c>
       <c r="G114">
-        <v>1048.3062137492141</v>
+        <v>1242.7657147741211</v>
       </c>
       <c r="H114">
         <v>0.25</v>
@@ -4810,13 +4810,13 @@
         <v>0</v>
       </c>
       <c r="J114">
-        <v>19</v>
+        <v>4</v>
       </c>
       <c r="K114" s="4">
         <v>1</v>
       </c>
       <c r="L114" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="115" spans="1:12" x14ac:dyDescent="0.3">
@@ -4824,22 +4824,22 @@
         <v>11</v>
       </c>
       <c r="B115" s="4">
-        <v>1076.2070645117269</v>
+        <v>213.3979008389241</v>
       </c>
       <c r="C115" s="4">
-        <v>355.99200035326089</v>
+        <v>49.593056916509909</v>
       </c>
       <c r="D115" s="4">
-        <v>81.98917657243058</v>
+        <v>10.16101479657716</v>
       </c>
       <c r="E115" s="4">
-        <v>70.449424325772782</v>
+        <v>14.861638917128399</v>
       </c>
       <c r="F115" s="4">
-        <v>40.876496632781411</v>
+        <v>20.171859755009621</v>
       </c>
       <c r="G115">
-        <v>1625.514162395973</v>
+        <v>308.18547122414918</v>
       </c>
       <c r="H115">
         <v>0.25</v>
@@ -4848,13 +4848,13 @@
         <v>0</v>
       </c>
       <c r="J115">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="K115" s="4">
         <v>1</v>
       </c>
       <c r="L115" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="116" spans="1:12" x14ac:dyDescent="0.3">
@@ -4862,22 +4862,22 @@
         <v>11</v>
       </c>
       <c r="B116" s="4">
-        <v>1516.2883859323181</v>
+        <v>428.66892781069942</v>
       </c>
       <c r="C116" s="4">
-        <v>530.09234103455287</v>
+        <v>41.06738527482765</v>
       </c>
       <c r="D116" s="4">
-        <v>100.4874068955361</v>
+        <v>11.465850334616521</v>
       </c>
       <c r="E116" s="4">
-        <v>16.758021925794171</v>
+        <v>16.839794089939868</v>
       </c>
       <c r="F116" s="4">
-        <v>5.3924201208935338</v>
+        <v>21.48758356183324</v>
       </c>
       <c r="G116">
-        <v>2169.018575909095</v>
+        <v>519.52954107191658</v>
       </c>
       <c r="H116">
         <v>0.25</v>
@@ -4886,7 +4886,7 @@
         <v>0</v>
       </c>
       <c r="J116">
-        <v>5</v>
+        <v>18</v>
       </c>
       <c r="K116" s="4">
         <v>1</v>
@@ -4899,23 +4899,23 @@
       <c r="A117" t="s">
         <v>11</v>
       </c>
-      <c r="B117" s="4">
-        <v>9272.5579076616104</v>
-      </c>
-      <c r="C117" s="4">
-        <v>2863.5778885218569</v>
-      </c>
-      <c r="D117" s="4">
-        <v>1194.601809346274</v>
-      </c>
-      <c r="E117" s="4">
-        <v>1885.967040277144</v>
-      </c>
-      <c r="F117" s="4">
-        <v>897.28688372582496</v>
+      <c r="B117" s="3">
+        <v>287.10054208180941</v>
+      </c>
+      <c r="C117" s="3">
+        <v>82.824454242349006</v>
+      </c>
+      <c r="D117" s="3">
+        <v>13.28331729260365</v>
+      </c>
+      <c r="E117" s="3">
+        <v>9.5604151794134058</v>
+      </c>
+      <c r="F117" s="3">
+        <v>21.758898491151459</v>
       </c>
       <c r="G117">
-        <v>16113.99152953271</v>
+        <v>414.52762728732688</v>
       </c>
       <c r="H117">
         <v>0.25</v>
@@ -4924,13 +4924,13 @@
         <v>0</v>
       </c>
       <c r="J117">
-        <v>20</v>
-      </c>
-      <c r="K117" s="4">
-        <v>1</v>
+        <v>7</v>
+      </c>
+      <c r="K117" s="3">
+        <v>0</v>
       </c>
       <c r="L117" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="118" spans="1:12" x14ac:dyDescent="0.3">
@@ -4938,22 +4938,22 @@
         <v>11</v>
       </c>
       <c r="B118" s="4">
-        <v>15986.953117202829</v>
+        <v>697.64777960456342</v>
       </c>
       <c r="C118" s="4">
-        <v>3251.8979096037801</v>
+        <v>115.4605784537588</v>
       </c>
       <c r="D118" s="4">
-        <v>1189.9921953993619</v>
+        <v>23.614883936408589</v>
       </c>
       <c r="E118" s="4">
-        <v>1095.3774717195829</v>
+        <v>20.922300524223409</v>
       </c>
       <c r="F118" s="4">
-        <v>1181.3289516159559</v>
+        <v>23.358487322973001</v>
       </c>
       <c r="G118">
-        <v>22705.549645541509</v>
+        <v>881.00402984192726</v>
       </c>
       <c r="H118">
         <v>0.25</v>
@@ -4962,7 +4962,7 @@
         <v>0</v>
       </c>
       <c r="J118">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="K118" s="4">
         <v>1</v>
@@ -4976,22 +4976,22 @@
         <v>11</v>
       </c>
       <c r="B119" s="4">
-        <v>416.10960927298441</v>
+        <v>472.8353525069557</v>
       </c>
       <c r="C119" s="4">
-        <v>66.423316112111777</v>
+        <v>123.74809782664239</v>
       </c>
       <c r="D119" s="4">
-        <v>4.6931837765146396</v>
+        <v>15.448776066429691</v>
       </c>
       <c r="E119" s="4">
-        <v>2.255729169055821</v>
+        <v>14.01525359263329</v>
       </c>
       <c r="F119" s="4">
-        <v>2.1687998120334102</v>
+        <v>23.74488439995082</v>
       </c>
       <c r="G119">
-        <v>491.65063814270002</v>
+        <v>649.79236439261183</v>
       </c>
       <c r="H119">
         <v>0.25</v>
@@ -5000,13 +5000,13 @@
         <v>0</v>
       </c>
       <c r="J119">
-        <v>28</v>
+        <v>10</v>
       </c>
       <c r="K119" s="4">
         <v>1</v>
       </c>
       <c r="L119" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="120" spans="1:12" x14ac:dyDescent="0.3">
@@ -5014,22 +5014,22 @@
         <v>11</v>
       </c>
       <c r="B120" s="4">
-        <v>45.635789749960743</v>
+        <v>2961.2277484735919</v>
       </c>
       <c r="C120" s="4">
-        <v>14.172699043962259</v>
+        <v>709.65448999582918</v>
       </c>
       <c r="D120" s="4">
-        <v>4.7178925273411618</v>
+        <v>126.30110250302489</v>
       </c>
       <c r="E120" s="4">
-        <v>3.6905988380809638</v>
+        <v>46.69565643407951</v>
       </c>
       <c r="F120" s="4">
-        <v>3.1541023858898631</v>
+        <v>25.294756546036279</v>
       </c>
       <c r="G120">
-        <v>71.371082545234984</v>
+        <v>3869.173753952562</v>
       </c>
       <c r="H120">
         <v>0.25</v>
@@ -5038,7 +5038,7 @@
         <v>0</v>
       </c>
       <c r="J120">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="K120" s="4">
         <v>1</v>
@@ -5051,23 +5051,23 @@
       <c r="A121" t="s">
         <v>11</v>
       </c>
-      <c r="B121" s="4">
-        <v>211.59567370309321</v>
-      </c>
-      <c r="C121" s="4">
-        <v>24.056250044768721</v>
-      </c>
-      <c r="D121" s="4">
-        <v>9.7441589952634402</v>
-      </c>
-      <c r="E121" s="4">
-        <v>5.8002108170161906</v>
-      </c>
-      <c r="F121" s="4">
-        <v>4.121941655962992</v>
+      <c r="B121" s="3">
+        <v>114.6745030308914</v>
+      </c>
+      <c r="C121" s="3">
+        <v>52.625968462794539</v>
+      </c>
+      <c r="D121" s="3">
+        <v>16.336556976463381</v>
+      </c>
+      <c r="E121" s="3">
+        <v>13.76952663342751</v>
+      </c>
+      <c r="F121" s="3">
+        <v>27.507553790762561</v>
       </c>
       <c r="G121">
-        <v>255.3182352161046</v>
+        <v>224.91410889433939</v>
       </c>
       <c r="H121">
         <v>0.25</v>
@@ -5076,10 +5076,10 @@
         <v>0</v>
       </c>
       <c r="J121">
-        <v>24</v>
-      </c>
-      <c r="K121" s="4">
-        <v>1</v>
+        <v>23</v>
+      </c>
+      <c r="K121" s="3">
+        <v>0</v>
       </c>
       <c r="L121" t="s">
         <v>14</v>
@@ -5090,22 +5090,22 @@
         <v>11</v>
       </c>
       <c r="B122" s="4">
-        <v>674.01201656520107</v>
+        <v>165.52979098557941</v>
       </c>
       <c r="C122" s="4">
-        <v>205.62296977354191</v>
+        <v>21.947301637309291</v>
       </c>
       <c r="D122" s="4">
-        <v>24.936580085091059</v>
+        <v>10.723498826359201</v>
       </c>
       <c r="E122" s="4">
-        <v>6.8977686736741912</v>
+        <v>19.412854798535349</v>
       </c>
       <c r="F122" s="4">
-        <v>4.2922802739022039</v>
+        <v>27.930671553328999</v>
       </c>
       <c r="G122">
-        <v>915.76161537141024</v>
+        <v>245.54411780111209</v>
       </c>
       <c r="H122">
         <v>0.25</v>
@@ -5114,13 +5114,13 @@
         <v>0</v>
       </c>
       <c r="J122">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="K122" s="4">
         <v>1</v>
       </c>
       <c r="L122" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="123" spans="1:12" x14ac:dyDescent="0.3">
@@ -5128,22 +5128,22 @@
         <v>11</v>
       </c>
       <c r="B123" s="4">
-        <v>1471.68914504144</v>
+        <v>207.31479769501311</v>
       </c>
       <c r="C123" s="4">
-        <v>393.21972024629412</v>
+        <v>62.124625955996763</v>
       </c>
       <c r="D123" s="4">
-        <v>37.953257360636243</v>
+        <v>12.256026013705959</v>
       </c>
       <c r="E123" s="4">
-        <v>6.5353457227144931</v>
+        <v>11.605102957023719</v>
       </c>
       <c r="F123" s="4">
-        <v>5.0881565559468207</v>
+        <v>28.08787005652221</v>
       </c>
       <c r="G123">
-        <v>1914.4856249270319</v>
+        <v>321.38842267826169</v>
       </c>
       <c r="H123">
         <v>0.25</v>
@@ -5152,36 +5152,36 @@
         <v>0</v>
       </c>
       <c r="J123">
-        <v>8</v>
+        <v>21</v>
       </c>
       <c r="K123" s="4">
         <v>1</v>
       </c>
       <c r="L123" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="124" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
         <v>11</v>
       </c>
-      <c r="B124" s="4">
-        <v>757.29620050469816</v>
-      </c>
-      <c r="C124" s="4">
-        <v>205.2390827210703</v>
-      </c>
-      <c r="D124" s="4">
-        <v>28.92576398506559</v>
-      </c>
-      <c r="E124" s="4">
-        <v>12.29359738284494</v>
-      </c>
-      <c r="F124" s="4">
-        <v>5.5356507893742704</v>
+      <c r="B124" s="3">
+        <v>254.83248251842241</v>
+      </c>
+      <c r="C124" s="3">
+        <v>57.838368862838891</v>
+      </c>
+      <c r="D124" s="3">
+        <v>10.769227184135479</v>
+      </c>
+      <c r="E124" s="3">
+        <v>22.57163740711416</v>
+      </c>
+      <c r="F124" s="3">
+        <v>31.226555738148441</v>
       </c>
       <c r="G124">
-        <v>1009.290295383053</v>
+        <v>377.23827171065938</v>
       </c>
       <c r="H124">
         <v>0.25</v>
@@ -5190,36 +5190,36 @@
         <v>0</v>
       </c>
       <c r="J124">
-        <v>18</v>
-      </c>
-      <c r="K124" s="4">
-        <v>1</v>
+        <v>17</v>
+      </c>
+      <c r="K124" s="3">
+        <v>0</v>
       </c>
       <c r="L124" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="125" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
         <v>11</v>
       </c>
-      <c r="B125" s="4">
-        <v>341.85455711319162</v>
-      </c>
-      <c r="C125" s="4">
-        <v>27.241427451006949</v>
-      </c>
-      <c r="D125" s="4">
-        <v>5.4075132234703682</v>
-      </c>
-      <c r="E125" s="4">
-        <v>4.3244354587888942</v>
-      </c>
-      <c r="F125" s="4">
-        <v>5.5450629965883707</v>
+      <c r="B125" s="3">
+        <v>522.51689641546818</v>
+      </c>
+      <c r="C125" s="3">
+        <v>116.500915483546</v>
+      </c>
+      <c r="D125" s="3">
+        <v>12.6331982545064</v>
+      </c>
+      <c r="E125" s="3">
+        <v>14.13130624726656</v>
+      </c>
+      <c r="F125" s="3">
+        <v>31.948900996413311</v>
       </c>
       <c r="G125">
-        <v>384.37299624304632</v>
+        <v>697.73121739720057</v>
       </c>
       <c r="H125">
         <v>0.25</v>
@@ -5228,13 +5228,13 @@
         <v>0</v>
       </c>
       <c r="J125">
-        <v>12</v>
-      </c>
-      <c r="K125" s="4">
-        <v>1</v>
+        <v>10</v>
+      </c>
+      <c r="K125" s="3">
+        <v>0</v>
       </c>
       <c r="L125" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="126" spans="1:12" x14ac:dyDescent="0.3">
@@ -5242,22 +5242,22 @@
         <v>11</v>
       </c>
       <c r="B126" s="4">
-        <v>1830.648185677645</v>
+        <v>445.99477078396268</v>
       </c>
       <c r="C126" s="4">
-        <v>252.47871782837279</v>
+        <v>73.277134383399684</v>
       </c>
       <c r="D126" s="4">
-        <v>19.039748853638589</v>
+        <v>10.740824417611069</v>
       </c>
       <c r="E126" s="4">
-        <v>5.5516522650791602</v>
+        <v>21.038774136160971</v>
       </c>
       <c r="F126" s="4">
-        <v>5.61422122696065</v>
+        <v>34.161356129859222</v>
       </c>
       <c r="G126">
-        <v>2113.3325258516961</v>
+        <v>585.21285985099348</v>
       </c>
       <c r="H126">
         <v>0.25</v>
@@ -5266,36 +5266,36 @@
         <v>0</v>
       </c>
       <c r="J126">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="K126" s="4">
         <v>1</v>
       </c>
       <c r="L126" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="127" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
         <v>11</v>
       </c>
-      <c r="B127" s="4">
-        <v>168.5308527163713</v>
-      </c>
-      <c r="C127" s="4">
-        <v>38.034659895820241</v>
-      </c>
-      <c r="D127" s="4">
-        <v>22.931826646584181</v>
-      </c>
-      <c r="E127" s="4">
-        <v>10.328370348940251</v>
-      </c>
-      <c r="F127" s="4">
-        <v>6.6854054056822623</v>
+      <c r="B127" s="3">
+        <v>347.42818366087278</v>
+      </c>
+      <c r="C127" s="3">
+        <v>57.379791680885212</v>
+      </c>
+      <c r="D127" s="3">
+        <v>41.534113196332633</v>
+      </c>
+      <c r="E127" s="3">
+        <v>23.214568214844391</v>
+      </c>
+      <c r="F127" s="3">
+        <v>35.690634021055523</v>
       </c>
       <c r="G127">
-        <v>246.5111150133983</v>
+        <v>505.24729077399058</v>
       </c>
       <c r="H127">
         <v>0.25</v>
@@ -5304,13 +5304,13 @@
         <v>0</v>
       </c>
       <c r="J127">
-        <v>22</v>
-      </c>
-      <c r="K127" s="4">
-        <v>1</v>
+        <v>12</v>
+      </c>
+      <c r="K127" s="3">
+        <v>0</v>
       </c>
       <c r="L127" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="128" spans="1:12" x14ac:dyDescent="0.3">
@@ -5318,22 +5318,22 @@
         <v>11</v>
       </c>
       <c r="B128" s="4">
-        <v>263.47224594943373</v>
+        <v>188.2802864421769</v>
       </c>
       <c r="C128" s="4">
-        <v>66.126575992991903</v>
+        <v>57.49496453658287</v>
       </c>
       <c r="D128" s="4">
-        <v>12.09052608827845</v>
+        <v>17.122230807537591</v>
       </c>
       <c r="E128" s="4">
-        <v>7.5403611736105471</v>
+        <v>16.495251138977579</v>
       </c>
       <c r="F128" s="4">
-        <v>6.699831591203889</v>
+        <v>37.631867437201443</v>
       </c>
       <c r="G128">
-        <v>355.92954079551839</v>
+        <v>317.02460036247652</v>
       </c>
       <c r="H128">
         <v>0.25</v>
@@ -5342,36 +5342,36 @@
         <v>0</v>
       </c>
       <c r="J128">
-        <v>2</v>
+        <v>22</v>
       </c>
       <c r="K128" s="4">
         <v>1</v>
       </c>
       <c r="L128" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="129" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
         <v>11</v>
       </c>
-      <c r="B129" s="4">
-        <v>283.58099359256221</v>
-      </c>
-      <c r="C129" s="4">
-        <v>71.999195808833463</v>
-      </c>
-      <c r="D129" s="4">
-        <v>10.874792599555381</v>
-      </c>
-      <c r="E129" s="4">
-        <v>8.3380218568355282</v>
-      </c>
-      <c r="F129" s="4">
-        <v>7.4785522901231367</v>
+      <c r="B129" s="3">
+        <v>608.29940251165795</v>
+      </c>
+      <c r="C129" s="3">
+        <v>223.11130625327201</v>
+      </c>
+      <c r="D129" s="3">
+        <v>68.879390323298281</v>
+      </c>
+      <c r="E129" s="3">
+        <v>53.276324268476351</v>
+      </c>
+      <c r="F129" s="3">
+        <v>40.434983481913839</v>
       </c>
       <c r="G129">
-        <v>382.27155614790968</v>
+        <v>994.00140683861866</v>
       </c>
       <c r="H129">
         <v>0.25</v>
@@ -5380,10 +5380,10 @@
         <v>0</v>
       </c>
       <c r="J129">
-        <v>1</v>
-      </c>
-      <c r="K129" s="4">
-        <v>1</v>
+        <v>15</v>
+      </c>
+      <c r="K129" s="3">
+        <v>0</v>
       </c>
       <c r="L129" t="s">
         <v>14</v>
@@ -5393,23 +5393,23 @@
       <c r="A130" t="s">
         <v>11</v>
       </c>
-      <c r="B130" s="4">
-        <v>648.84628904053056</v>
-      </c>
-      <c r="C130" s="4">
-        <v>147.46957219958071</v>
-      </c>
-      <c r="D130" s="4">
-        <v>23.463071855382221</v>
-      </c>
-      <c r="E130" s="4">
-        <v>8.5381940776354419</v>
-      </c>
-      <c r="F130" s="4">
-        <v>7.6358130693399824</v>
+      <c r="B130" s="3">
+        <v>107.7549084237971</v>
+      </c>
+      <c r="C130" s="3">
+        <v>45.449407604478338</v>
+      </c>
+      <c r="D130" s="3">
+        <v>13.295645695702801</v>
+      </c>
+      <c r="E130" s="3">
+        <v>17.71503643889541</v>
+      </c>
+      <c r="F130" s="3">
+        <v>40.814794591804763</v>
       </c>
       <c r="G130">
-        <v>835.9529402424688</v>
+        <v>225.0297927546784</v>
       </c>
       <c r="H130">
         <v>0.25</v>
@@ -5418,13 +5418,13 @@
         <v>0</v>
       </c>
       <c r="J130">
-        <v>7</v>
-      </c>
-      <c r="K130" s="4">
-        <v>1</v>
+        <v>23</v>
+      </c>
+      <c r="K130" s="3">
+        <v>0</v>
       </c>
       <c r="L130" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="131" spans="1:12" x14ac:dyDescent="0.3">
@@ -5432,22 +5432,22 @@
         <v>11</v>
       </c>
       <c r="B131" s="4">
-        <v>1358.944705653739</v>
+        <v>1076.2070645117269</v>
       </c>
       <c r="C131" s="4">
-        <v>521.21822494707658</v>
+        <v>355.99200035326089</v>
       </c>
       <c r="D131" s="4">
-        <v>90.677510460684886</v>
+        <v>81.98917657243058</v>
       </c>
       <c r="E131" s="4">
-        <v>14.07381990315236</v>
+        <v>70.449424325772782</v>
       </c>
       <c r="F131" s="4">
-        <v>7.7894413246896104</v>
+        <v>40.876496632781411</v>
       </c>
       <c r="G131">
-        <v>1992.7037022893419</v>
+        <v>1625.514162395973</v>
       </c>
       <c r="H131">
         <v>0.25</v>
@@ -5456,36 +5456,36 @@
         <v>0</v>
       </c>
       <c r="J131">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="K131" s="4">
         <v>1</v>
       </c>
       <c r="L131" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="132" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A132" t="s">
         <v>11</v>
       </c>
-      <c r="B132" s="4">
-        <v>1186.0400168291819</v>
-      </c>
-      <c r="C132" s="4">
-        <v>192.6339732285409</v>
-      </c>
-      <c r="D132" s="4">
-        <v>26.44705508330032</v>
-      </c>
-      <c r="E132" s="4">
-        <v>11.35558753930564</v>
-      </c>
-      <c r="F132" s="4">
-        <v>10.01523611406618</v>
+      <c r="B132" s="3">
+        <v>64.262786428457758</v>
+      </c>
+      <c r="C132" s="3">
+        <v>9.4053871778404101</v>
+      </c>
+      <c r="D132" s="3">
+        <v>5.8549179143616819</v>
+      </c>
+      <c r="E132" s="3">
+        <v>11.61505956189931</v>
+      </c>
+      <c r="F132" s="3">
+        <v>41.397726074692287</v>
       </c>
       <c r="G132">
-        <v>1426.491868794395</v>
+        <v>132.53587715725149</v>
       </c>
       <c r="H132">
         <v>0.25</v>
@@ -5494,13 +5494,13 @@
         <v>0</v>
       </c>
       <c r="J132">
-        <v>3</v>
-      </c>
-      <c r="K132" s="4">
-        <v>1</v>
+        <v>8</v>
+      </c>
+      <c r="K132" s="3">
+        <v>0</v>
       </c>
       <c r="L132" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="133" spans="1:12" x14ac:dyDescent="0.3">
@@ -5508,22 +5508,22 @@
         <v>11</v>
       </c>
       <c r="B133" s="4">
-        <v>358.08096477526919</v>
+        <v>13.51848425915369</v>
       </c>
       <c r="C133" s="4">
-        <v>55.103236798998793</v>
+        <v>19.164797809624101</v>
       </c>
       <c r="D133" s="4">
-        <v>9.9880770201838054</v>
+        <v>11.36178992293175</v>
       </c>
       <c r="E133" s="4">
-        <v>8.5023303315692935</v>
+        <v>25.958915854912799</v>
       </c>
       <c r="F133" s="4">
-        <v>10.363256196406811</v>
+        <v>44.765129882228649</v>
       </c>
       <c r="G133">
-        <v>442.03786512242777</v>
+        <v>114.769117728851</v>
       </c>
       <c r="H133">
         <v>0.25</v>
@@ -5532,13 +5532,13 @@
         <v>0</v>
       </c>
       <c r="J133">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="K133" s="4">
         <v>1</v>
       </c>
       <c r="L133" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="134" spans="1:12" x14ac:dyDescent="0.3">
@@ -5546,22 +5546,22 @@
         <v>11</v>
       </c>
       <c r="B134" s="4">
-        <v>2494.9698839670632</v>
+        <v>10226.143943050931</v>
       </c>
       <c r="C134" s="4">
-        <v>506.41964174434321</v>
+        <v>1054.2904260742091</v>
       </c>
       <c r="D134" s="4">
-        <v>91.08541226935985</v>
+        <v>79.421390107595997</v>
       </c>
       <c r="E134" s="4">
-        <v>29.0638568347585</v>
+        <v>28.873044842834311</v>
       </c>
       <c r="F134" s="4">
-        <v>13.195763942850579</v>
+        <v>72.140830720152735</v>
       </c>
       <c r="G134">
-        <v>3134.734558758375</v>
+        <v>11460.869634795719</v>
       </c>
       <c r="H134">
         <v>0.25</v>
@@ -5570,7 +5570,7 @@
         <v>0</v>
       </c>
       <c r="J134">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="K134" s="4">
         <v>1</v>
@@ -5584,22 +5584,22 @@
         <v>11</v>
       </c>
       <c r="B135" s="4">
-        <v>1732.606955237163</v>
+        <v>862.35497664226705</v>
       </c>
       <c r="C135" s="4">
-        <v>299.40953353216059</v>
+        <v>183.8137877055413</v>
       </c>
       <c r="D135" s="4">
-        <v>25.28288387407607</v>
+        <v>39.479170603694989</v>
       </c>
       <c r="E135" s="4">
-        <v>13.337779351692619</v>
+        <v>39.812400714282148</v>
       </c>
       <c r="F135" s="4">
-        <v>15.794056328225899</v>
+        <v>92.463433326167277</v>
       </c>
       <c r="G135">
-        <v>2086.431208323319</v>
+        <v>1217.923768991953</v>
       </c>
       <c r="H135">
         <v>0.25</v>
@@ -5608,7 +5608,7 @@
         <v>0</v>
       </c>
       <c r="J135">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="K135" s="4">
         <v>1</v>
@@ -5622,22 +5622,22 @@
         <v>11</v>
       </c>
       <c r="B136" s="4">
-        <v>1229.658423220495</v>
+        <v>164.74035343843781</v>
       </c>
       <c r="C136" s="4">
-        <v>204.24901621747489</v>
+        <v>50.277632960534163</v>
       </c>
       <c r="D136" s="4">
-        <v>47.581221346136353</v>
+        <v>20.978881620213681</v>
       </c>
       <c r="E136" s="4">
-        <v>18.629300227847029</v>
+        <v>44.790515264628162</v>
       </c>
       <c r="F136" s="4">
-        <v>16.189080901547499</v>
+        <v>108.6471023452696</v>
       </c>
       <c r="G136">
-        <v>1516.3070419135011</v>
+        <v>389.43448562908338</v>
       </c>
       <c r="H136">
         <v>0.25</v>
@@ -5646,7 +5646,7 @@
         <v>0</v>
       </c>
       <c r="J136">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="K136" s="4">
         <v>1</v>
@@ -5659,23 +5659,23 @@
       <c r="A137" t="s">
         <v>11</v>
       </c>
-      <c r="B137" s="4">
-        <v>980.91119389596099</v>
-      </c>
-      <c r="C137" s="4">
-        <v>204.02311835377401</v>
-      </c>
-      <c r="D137" s="4">
-        <v>22.763902770272161</v>
-      </c>
-      <c r="E137" s="4">
-        <v>14.951378936860261</v>
-      </c>
-      <c r="F137" s="4">
-        <v>20.116120817253769</v>
+      <c r="B137" s="3">
+        <v>6621.1684965510012</v>
+      </c>
+      <c r="C137" s="3">
+        <v>256.28628152110463</v>
+      </c>
+      <c r="D137" s="3">
+        <v>295.58096548823471</v>
+      </c>
+      <c r="E137" s="3">
+        <v>283.78510497621818</v>
+      </c>
+      <c r="F137" s="3">
+        <v>138.90220440971899</v>
       </c>
       <c r="G137">
-        <v>1242.7657147741211</v>
+        <v>7595.7230529462804</v>
       </c>
       <c r="H137">
         <v>0.25</v>
@@ -5684,13 +5684,13 @@
         <v>0</v>
       </c>
       <c r="J137">
-        <v>4</v>
-      </c>
-      <c r="K137" s="4">
-        <v>1</v>
+        <v>21</v>
+      </c>
+      <c r="K137" s="3">
+        <v>0</v>
       </c>
       <c r="L137" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="138" spans="1:12" x14ac:dyDescent="0.3">
@@ -5698,22 +5698,22 @@
         <v>11</v>
       </c>
       <c r="B138" s="4">
-        <v>213.3979008389241</v>
+        <v>690.66476007978031</v>
       </c>
       <c r="C138" s="4">
-        <v>49.593056916509909</v>
+        <v>206.1117835125508</v>
       </c>
       <c r="D138" s="4">
-        <v>10.16101479657716</v>
+        <v>50.434767840343653</v>
       </c>
       <c r="E138" s="4">
-        <v>14.861638917128399</v>
+        <v>96.095476443281996</v>
       </c>
       <c r="F138" s="4">
-        <v>20.171859755009621</v>
+        <v>199.5857701349322</v>
       </c>
       <c r="G138">
-        <v>308.18547122414918</v>
+        <v>1242.8925580108889</v>
       </c>
       <c r="H138">
         <v>0.25</v>
@@ -5722,13 +5722,13 @@
         <v>0</v>
       </c>
       <c r="J138">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="K138" s="4">
         <v>1</v>
       </c>
       <c r="L138" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="139" spans="1:12" x14ac:dyDescent="0.3">
@@ -5736,22 +5736,22 @@
         <v>11</v>
       </c>
       <c r="B139" s="4">
-        <v>2961.2277484735919</v>
+        <v>1646.1953474151831</v>
       </c>
       <c r="C139" s="4">
-        <v>709.65448999582918</v>
+        <v>579.10875578418461</v>
       </c>
       <c r="D139" s="4">
-        <v>126.30110250302489</v>
+        <v>192.5977676764067</v>
       </c>
       <c r="E139" s="4">
-        <v>46.69565643407951</v>
+        <v>240.55803900778039</v>
       </c>
       <c r="F139" s="4">
-        <v>25.294756546036279</v>
+        <v>203.13818848357471</v>
       </c>
       <c r="G139">
-        <v>3869.173753952562</v>
+        <v>2861.5980983671288</v>
       </c>
       <c r="H139">
         <v>0.25</v>
@@ -5760,7 +5760,7 @@
         <v>0</v>
       </c>
       <c r="J139">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="K139" s="4">
         <v>1</v>
@@ -5773,23 +5773,23 @@
       <c r="A140" t="s">
         <v>11</v>
       </c>
-      <c r="B140" s="4">
-        <v>10226.143943050931</v>
-      </c>
-      <c r="C140" s="4">
-        <v>1054.2904260742091</v>
-      </c>
-      <c r="D140" s="4">
-        <v>79.421390107595997</v>
-      </c>
-      <c r="E140" s="4">
-        <v>28.873044842834311</v>
-      </c>
-      <c r="F140" s="4">
-        <v>72.140830720152735</v>
+      <c r="B140" s="3">
+        <v>5061.5609306900697</v>
+      </c>
+      <c r="C140" s="3">
+        <v>816.1718269621939</v>
+      </c>
+      <c r="D140" s="3">
+        <v>143.15565512741631</v>
+      </c>
+      <c r="E140" s="3">
+        <v>134.752116767909</v>
+      </c>
+      <c r="F140" s="3">
+        <v>225.39884078746999</v>
       </c>
       <c r="G140">
-        <v>11460.869634795719</v>
+        <v>6381.039370335061</v>
       </c>
       <c r="H140">
         <v>0.25</v>
@@ -5798,10 +5798,10 @@
         <v>0</v>
       </c>
       <c r="J140">
-        <v>17</v>
-      </c>
-      <c r="K140" s="4">
-        <v>1</v>
+        <v>24</v>
+      </c>
+      <c r="K140" s="3">
+        <v>0</v>
       </c>
       <c r="L140" t="s">
         <v>14</v>
@@ -5812,22 +5812,22 @@
         <v>11</v>
       </c>
       <c r="B141" s="4">
-        <v>862.35497664226705</v>
+        <v>2528.2790539939001</v>
       </c>
       <c r="C141" s="4">
-        <v>183.8137877055413</v>
+        <v>320.92936738630181</v>
       </c>
       <c r="D141" s="4">
-        <v>39.479170603694989</v>
+        <v>136.89171753007599</v>
       </c>
       <c r="E141" s="4">
-        <v>39.812400714282148</v>
+        <v>121.8864866724966</v>
       </c>
       <c r="F141" s="4">
-        <v>92.463433326167277</v>
+        <v>839.65005860438487</v>
       </c>
       <c r="G141">
-        <v>1217.923768991953</v>
+        <v>3947.6366841871591</v>
       </c>
       <c r="H141">
         <v>0.25</v>
@@ -5836,7 +5836,7 @@
         <v>0</v>
       </c>
       <c r="J141">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="K141" s="4">
         <v>1</v>
@@ -5850,22 +5850,22 @@
         <v>11</v>
       </c>
       <c r="B142" s="4">
-        <v>164.74035343843781</v>
+        <v>9272.5579076616104</v>
       </c>
       <c r="C142" s="4">
-        <v>50.277632960534163</v>
+        <v>2863.5778885218569</v>
       </c>
       <c r="D142" s="4">
-        <v>20.978881620213681</v>
+        <v>1194.601809346274</v>
       </c>
       <c r="E142" s="4">
-        <v>44.790515264628162</v>
+        <v>1885.967040277144</v>
       </c>
       <c r="F142" s="4">
-        <v>108.6471023452696</v>
+        <v>897.28688372582496</v>
       </c>
       <c r="G142">
-        <v>389.43448562908338</v>
+        <v>16113.99152953271</v>
       </c>
       <c r="H142">
         <v>0.25</v>
@@ -5874,13 +5874,13 @@
         <v>0</v>
       </c>
       <c r="J142">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K142" s="4">
         <v>1</v>
       </c>
       <c r="L142" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="143" spans="1:12" x14ac:dyDescent="0.3">
@@ -5888,22 +5888,22 @@
         <v>11</v>
       </c>
       <c r="B143" s="4">
-        <v>1646.1953474151831</v>
+        <v>970.00974154075584</v>
       </c>
       <c r="C143" s="4">
-        <v>579.10875578418461</v>
+        <v>234.2453446499544</v>
       </c>
       <c r="D143" s="4">
-        <v>192.5977676764067</v>
+        <v>105.7327143350802</v>
       </c>
       <c r="E143" s="4">
-        <v>240.55803900778039</v>
+        <v>399.57631607397832</v>
       </c>
       <c r="F143" s="4">
-        <v>203.13818848357471</v>
+        <v>950.04177019236386</v>
       </c>
       <c r="G143">
-        <v>2861.5980983671288</v>
+        <v>2659.605886792132</v>
       </c>
       <c r="H143">
         <v>0.25</v>
@@ -5912,7 +5912,7 @@
         <v>0</v>
       </c>
       <c r="J143">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="K143" s="4">
         <v>1</v>
@@ -5926,22 +5926,22 @@
         <v>11</v>
       </c>
       <c r="B144" s="4">
-        <v>2528.2790539939001</v>
+        <v>15986.953117202829</v>
       </c>
       <c r="C144" s="4">
-        <v>320.92936738630181</v>
+        <v>3251.8979096037801</v>
       </c>
       <c r="D144" s="4">
-        <v>136.89171753007599</v>
+        <v>1189.9921953993619</v>
       </c>
       <c r="E144" s="4">
-        <v>121.8864866724966</v>
+        <v>1095.3774717195829</v>
       </c>
       <c r="F144" s="4">
-        <v>839.65005860438487</v>
+        <v>1181.3289516159559</v>
       </c>
       <c r="G144">
-        <v>3947.6366841871591</v>
+        <v>22705.549645541509</v>
       </c>
       <c r="H144">
         <v>0.25</v>
@@ -5950,13 +5950,13 @@
         <v>0</v>
       </c>
       <c r="J144">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="K144" s="4">
         <v>1</v>
       </c>
       <c r="L144" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="145" spans="1:12" x14ac:dyDescent="0.3">
@@ -5964,22 +5964,22 @@
         <v>11</v>
       </c>
       <c r="B145" s="4">
-        <v>970.00974154075584</v>
+        <v>22868.41316698055</v>
       </c>
       <c r="C145" s="4">
-        <v>234.2453446499544</v>
+        <v>7324.3642620668734</v>
       </c>
       <c r="D145" s="4">
-        <v>105.7327143350802</v>
+        <v>6239.179491481591</v>
       </c>
       <c r="E145" s="4">
-        <v>399.57631607397832</v>
+        <v>3627.9920540129629</v>
       </c>
       <c r="F145" s="4">
-        <v>950.04177019236386</v>
+        <v>4616.6853240045621</v>
       </c>
       <c r="G145">
-        <v>2659.605886792132</v>
+        <v>44676.634298546531</v>
       </c>
       <c r="H145">
         <v>0.25</v>
@@ -5988,16 +5988,19 @@
         <v>0</v>
       </c>
       <c r="J145">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="K145" s="4">
         <v>1</v>
       </c>
       <c r="L145" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:L146">
+    <sortCondition ref="F2:F146"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>